--- a/residual_arima.xlsx
+++ b/residual_arima.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/Coding TA/Uji Coba TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_551910B6D3B0D65C77382C11595ED87656CD56B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1AF36D6-B178-4B68-AF3A-31C64F50E75E}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_7DB1F3B0D340D17AD7382911595ED87656CD66CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{687555C4-084D-47F0-8CE4-5BDE28163F78}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +44,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,9 +91,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -95,6 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,3796 +405,3796 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C418" sqref="C418"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B397" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <f>DATE(1987,1,1)</f>
         <v>31778</v>
       </c>
       <c r="B2">
-        <v>-211.3308703490282</v>
+        <v>18.069023650103471</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <f>DATE(1987,2,1)</f>
         <v>31809</v>
       </c>
       <c r="B3">
-        <v>-2.9944279841824941</v>
+        <v>9.2734209124990823</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f>DATE(1987,3,1)</f>
         <v>31837</v>
       </c>
       <c r="B4">
-        <v>-52.101163327538927</v>
+        <v>1.4646952572352581</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f>DATE(1987,4,1)</f>
         <v>31868</v>
       </c>
       <c r="B5">
-        <v>-1.382874255939498</v>
+        <v>-6.4987191428857907</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f>DATE(1987,5,1)</f>
         <v>31898</v>
       </c>
       <c r="B6">
-        <v>-16.97604554239507</v>
+        <v>-14.2278500880553</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f>DATE(1987,6,1)</f>
         <v>31929</v>
       </c>
       <c r="B7">
-        <v>105.861694637835</v>
+        <v>-28.182444667037231</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f>DATE(1987,7,1)</f>
         <v>31959</v>
       </c>
       <c r="B8">
-        <v>90.182163067034949</v>
+        <v>-40.371598796541221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f>DATE(1987,8,1)</f>
         <v>31990</v>
       </c>
       <c r="B9">
-        <v>12.126916793287011</v>
+        <v>-41.037637529156022</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f>DATE(1987,9,1)</f>
         <v>32021</v>
       </c>
       <c r="B10">
-        <v>10.39036764757145</v>
+        <v>-33.185965444517528</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f>DATE(1987,10,1)</f>
         <v>32051</v>
       </c>
       <c r="B11">
-        <v>-66.278766533302758</v>
+        <v>-17.877324346604858</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f>DATE(1987,11,1)</f>
         <v>32082</v>
       </c>
       <c r="B12">
-        <v>-23.244265989686209</v>
+        <v>-1.527227794869102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f>DATE(1987,12,1)</f>
         <v>32112</v>
       </c>
       <c r="B13">
-        <v>-27.62444234518124</v>
+        <v>9.8628827579242682</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f>DATE(1988,1,1)</f>
         <v>32143</v>
       </c>
       <c r="B14">
-        <v>18.643175031856899</v>
+        <v>20.178186047128381</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f>DATE(1988,2,1)</f>
         <v>32174</v>
       </c>
       <c r="B15">
-        <v>-24.255524184637078</v>
+        <v>28.920378963986931</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <f>DATE(1988,3,1)</f>
         <v>32203</v>
       </c>
       <c r="B16">
-        <v>34.451807534257547</v>
+        <v>35.061720450654363</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <f>DATE(1988,4,1)</f>
         <v>32234</v>
       </c>
       <c r="B17">
-        <v>-17.08957903819292</v>
+        <v>39.317767410101688</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <f>DATE(1988,5,1)</f>
         <v>32264</v>
       </c>
       <c r="B18">
-        <v>-48.13237223156969</v>
+        <v>28.55055006571212</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <f>DATE(1988,6,1)</f>
         <v>32295</v>
       </c>
       <c r="B19">
-        <v>-100.1908103518461</v>
+        <v>19.579053138586261</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <f>DATE(1988,7,1)</f>
         <v>32325</v>
       </c>
       <c r="B20">
-        <v>8.9743459867552247</v>
+        <v>9.5051250442168929</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <f>DATE(1988,8,1)</f>
         <v>32356</v>
       </c>
       <c r="B21">
-        <v>36.421987876002667</v>
+        <v>4.1539047753984324</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <f>DATE(1988,9,1)</f>
         <v>32387</v>
       </c>
       <c r="B22">
-        <v>-2.0287914957963271</v>
+        <v>0.58308219442208742</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <f>DATE(1988,10,1)</f>
         <v>32417</v>
       </c>
       <c r="B23">
-        <v>-16.42646308636392</v>
+        <v>-0.13426293771920461</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <f>DATE(1988,11,1)</f>
         <v>32448</v>
       </c>
       <c r="B24">
-        <v>-4.4348713708176319</v>
+        <v>-0.6435627619155615</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <f>DATE(1988,12,1)</f>
         <v>32478</v>
       </c>
       <c r="B25">
-        <v>-29.558951371200411</v>
+        <v>-1.731590645639705</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <f>DATE(1989,1,1)</f>
         <v>32509</v>
       </c>
       <c r="B26">
-        <v>-23.260241770979061</v>
+        <v>-1.752603776544718</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <f>DATE(1989,2,1)</f>
         <v>32540</v>
       </c>
       <c r="B27">
-        <v>37.90461145203966</v>
+        <v>-4.9920496572712549</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <f>DATE(1989,3,1)</f>
         <v>32568</v>
       </c>
       <c r="B28">
-        <v>-23.416070757345491</v>
+        <v>-6.2725980680633917</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <f>DATE(1989,4,1)</f>
         <v>32599</v>
       </c>
       <c r="B29">
-        <v>-127.1582214377723</v>
+        <v>-3.1007731827358889</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <f>DATE(1989,5,1)</f>
         <v>32629</v>
       </c>
       <c r="B30">
-        <v>-14.2212019248642</v>
+        <v>-1.871918151402467</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <f>DATE(1989,6,1)</f>
         <v>32660</v>
       </c>
       <c r="B31">
-        <v>-52.703568092962833</v>
+        <v>-0.56907282486297506</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <f>DATE(1989,7,1)</f>
         <v>32690</v>
       </c>
       <c r="B32">
-        <v>-68.43629681307533</v>
+        <v>0.37550888802506732</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <f>DATE(1989,8,1)</f>
         <v>32721</v>
       </c>
       <c r="B33">
-        <v>9.5192573943212437</v>
+        <v>0.1344352921144536</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <f>DATE(1989,9,1)</f>
         <v>32752</v>
       </c>
       <c r="B34">
-        <v>-56.554770847164257</v>
+        <v>-4.4733612107941134E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <f>DATE(1989,10,1)</f>
         <v>32782</v>
       </c>
       <c r="B35">
-        <v>-40.99838525159754</v>
+        <v>0.2285495965366493</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <f>DATE(1989,11,1)</f>
         <v>32813</v>
       </c>
       <c r="B36">
-        <v>-41.266697623171133</v>
+        <v>0.75346859166874947</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <f>DATE(1989,12,1)</f>
         <v>32843</v>
       </c>
       <c r="B37">
-        <v>91.733657327090441</v>
+        <v>3.082589982559599</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <f>DATE(1990,1,1)</f>
         <v>32874</v>
       </c>
       <c r="B38">
-        <v>105.4981393922142</v>
+        <v>5.2514383908905957</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <f>DATE(1990,2,1)</f>
         <v>32905</v>
       </c>
       <c r="B39">
-        <v>-88.447745627944244</v>
+        <v>6.7154846578701228</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <f>DATE(1990,3,1)</f>
         <v>32933</v>
       </c>
       <c r="B40">
-        <v>75.946069093267894</v>
+        <v>4.8365747346968</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <f>DATE(1990,4,1)</f>
         <v>32964</v>
       </c>
       <c r="B41">
-        <v>-91.080401041895243</v>
+        <v>9.2304764141992433</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <f>DATE(1990,5,1)</f>
         <v>32994</v>
       </c>
       <c r="B42">
-        <v>15.6873648925644</v>
+        <v>10.62782985571261</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <f>DATE(1990,6,1)</f>
         <v>33025</v>
       </c>
       <c r="B43">
-        <v>8.1318701146133208</v>
+        <v>16.358261395873569</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <f>DATE(1990,7,1)</f>
         <v>33055</v>
       </c>
       <c r="B44">
-        <v>-29.112331928168999</v>
+        <v>12.840987236819551</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <f>DATE(1990,8,1)</f>
         <v>33086</v>
       </c>
       <c r="B45">
-        <v>18.328298587740221</v>
+        <v>7.8750140364610806</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <f>DATE(1990,9,1)</f>
         <v>33117</v>
       </c>
       <c r="B46">
-        <v>-5.0490185142503492</v>
+        <v>7.2841328323666232</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <f>DATE(1990,10,1)</f>
         <v>33147</v>
       </c>
       <c r="B47">
-        <v>16.088483062126372</v>
+        <v>3.7367426006290692</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <f>DATE(1990,11,1)</f>
         <v>33178</v>
       </c>
       <c r="B48">
-        <v>20.957314123929379</v>
+        <v>6.5432216658548006</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <f>DATE(1990,12,1)</f>
         <v>33208</v>
       </c>
       <c r="B49">
-        <v>13.279114089823659</v>
+        <v>3.8827772479073208</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <f>DATE(1991,1,1)</f>
         <v>33239</v>
       </c>
       <c r="B50">
-        <v>32.952152993384558</v>
+        <v>0.69200712353304972</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <f>DATE(1991,2,1)</f>
         <v>33270</v>
       </c>
       <c r="B51">
-        <v>65.875919504186655</v>
+        <v>0.95435401445404877</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <f>DATE(1991,3,1)</f>
         <v>33298</v>
       </c>
       <c r="B52">
-        <v>16.97196638910394</v>
+        <v>3.7839416381509809</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <f>DATE(1991,4,1)</f>
         <v>33329</v>
       </c>
       <c r="B53">
-        <v>-81.624920546113984</v>
+        <v>2.4549329952686212</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <f>DATE(1991,5,1)</f>
         <v>33359</v>
       </c>
       <c r="B54">
-        <v>-104.9437357768055</v>
+        <v>0.6861148763997077</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <f>DATE(1991,6,1)</f>
         <v>33390</v>
       </c>
       <c r="B55">
-        <v>23.771054039839729</v>
+        <v>0.58138507440448461</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <f>DATE(1991,7,1)</f>
         <v>33420</v>
       </c>
       <c r="B56">
-        <v>34.759441911095678</v>
+        <v>0.1664202785679478</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <f>DATE(1991,8,1)</f>
         <v>33451</v>
       </c>
       <c r="B57">
-        <v>-15.740472427181491</v>
+        <v>1.2648462843010391</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <f>DATE(1991,9,1)</f>
         <v>33482</v>
       </c>
       <c r="B58">
-        <v>51.50701689373409</v>
+        <v>2.5525917159088451</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <f>DATE(1991,10,1)</f>
         <v>33512</v>
       </c>
       <c r="B59">
-        <v>-0.90712536568889846</v>
+        <v>2.6991778740782442</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <f>DATE(1991,11,1)</f>
         <v>33543</v>
       </c>
       <c r="B60">
-        <v>2.031103866031629</v>
+        <v>2.6507925770301801</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <f>DATE(1991,12,1)</f>
         <v>33573</v>
       </c>
       <c r="B61">
-        <v>-69.977404267552913</v>
+        <v>3.3258654270144672</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <f>DATE(1992,1,1)</f>
         <v>33604</v>
       </c>
       <c r="B62">
-        <v>24.641190008649691</v>
+        <v>2.6124815141710909</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <f>DATE(1992,2,1)</f>
         <v>33635</v>
       </c>
       <c r="B63">
-        <v>-41.123467792790791</v>
+        <v>2.7835530185244122</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <f>DATE(1992,3,1)</f>
         <v>33664</v>
       </c>
       <c r="B64">
-        <v>-18.253946560097859</v>
+        <v>0.68362897281667678</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <f>DATE(1992,4,1)</f>
         <v>33695</v>
       </c>
       <c r="B65">
-        <v>-38.981298152947602</v>
+        <v>-0.82229392242591315</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <f>DATE(1992,5,1)</f>
         <v>33725</v>
       </c>
       <c r="B66">
-        <v>-32.866476202831109</v>
+        <v>-2.2759510132104541</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <f>DATE(1992,6,1)</f>
         <v>33756</v>
       </c>
       <c r="B67">
-        <v>223.14502615315439</v>
+        <v>-15.645115348783801</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <f>DATE(1992,7,1)</f>
         <v>33786</v>
       </c>
       <c r="B68">
-        <v>-40.04942542778987</v>
+        <v>-22.924131151093189</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <f>DATE(1992,8,1)</f>
         <v>33817</v>
       </c>
       <c r="B69">
-        <v>17.691751859470301</v>
+        <v>-34.185726815950588</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <f>DATE(1992,9,1)</f>
         <v>33848</v>
       </c>
       <c r="B70">
-        <v>-24.487935017036019</v>
+        <v>-33.374683525346931</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <f>DATE(1992,10,1)</f>
         <v>33878</v>
       </c>
       <c r="B71">
-        <v>32.910543453594812</v>
+        <v>-34.360078719926094</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <f>DATE(1992,11,1)</f>
         <v>33909</v>
       </c>
       <c r="B72">
-        <v>-12.87124509678296</v>
+        <v>-28.374203617604071</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <f>DATE(1992,12,1)</f>
         <v>33939</v>
       </c>
       <c r="B73">
-        <v>33.903986258193868</v>
+        <v>-26.640619017407541</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <f>DATE(1993,1,1)</f>
         <v>33970</v>
       </c>
       <c r="B74">
-        <v>-16.45697816546323</v>
+        <v>-16.155831877005362</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <f>DATE(1993,2,1)</f>
         <v>34001</v>
       </c>
       <c r="B75">
-        <v>43.753088207577889</v>
+        <v>-7.4670702883871938</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <f>DATE(1993,3,1)</f>
         <v>34029</v>
       </c>
       <c r="B76">
-        <v>20.61532642322527</v>
+        <v>3.203453929103131</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <f>DATE(1993,4,1)</f>
         <v>34060</v>
       </c>
       <c r="B77">
-        <v>-76.765831634683252</v>
+        <v>15.82309228052749</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <f>DATE(1993,5,1)</f>
         <v>34090</v>
       </c>
       <c r="B78">
-        <v>52.792387506709353</v>
+        <v>18.198548973080069</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <f>DATE(1993,6,1)</f>
         <v>34121</v>
       </c>
       <c r="B79">
-        <v>-68.888793130567493</v>
+        <v>15.873311091254941</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <f>DATE(1993,7,1)</f>
         <v>34151</v>
       </c>
       <c r="B80">
-        <v>-68.57319221768762</v>
+        <v>11.308206136954171</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <f>DATE(1993,8,1)</f>
         <v>34182</v>
       </c>
       <c r="B81">
-        <v>79.993053148432978</v>
+        <v>9.7202335274670446</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <f>DATE(1993,9,1)</f>
         <v>34213</v>
       </c>
       <c r="B82">
-        <v>-11.51816127658952</v>
+        <v>6.3407440212341148</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <f>DATE(1993,10,1)</f>
         <v>34243</v>
       </c>
       <c r="B83">
-        <v>-26.72047317188191</v>
+        <v>4.7269027859359198</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <f>DATE(1993,11,1)</f>
         <v>34274</v>
       </c>
       <c r="B84">
-        <v>20.8765200122678</v>
+        <v>2.1957023073217439</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <f>DATE(1993,12,1)</f>
         <v>34304</v>
       </c>
       <c r="B85">
-        <v>-35.659605078113941</v>
+        <v>0.33004032141110468</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <f>DATE(1994,1,1)</f>
         <v>34335</v>
       </c>
       <c r="B86">
-        <v>-23.319962796492749</v>
+        <v>0.73031324946199294</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <f>DATE(1994,2,1)</f>
         <v>34366</v>
       </c>
       <c r="B87">
-        <v>28.212447876520681</v>
+        <v>2.6261287430932949</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <f>DATE(1994,3,1)</f>
         <v>34394</v>
       </c>
       <c r="B88">
-        <v>-45.76275152841896</v>
+        <v>3.1721929784664709</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <f>DATE(1994,4,1)</f>
         <v>34425</v>
       </c>
       <c r="B89">
-        <v>-11.841958553989169</v>
+        <v>3.5511699084149488</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <f>DATE(1994,5,1)</f>
         <v>34455</v>
       </c>
       <c r="B90">
-        <v>-43.41707315969046</v>
+        <v>6.141604844144422</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <f>DATE(1994,6,1)</f>
         <v>34486</v>
       </c>
       <c r="B91">
-        <v>-43.324281542720712</v>
+        <v>6.1456977018974461</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <f>DATE(1994,7,1)</f>
         <v>34516</v>
       </c>
       <c r="B92">
-        <v>-43.154092261777748</v>
+        <v>4.5873721994030774</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <f>DATE(1994,8,1)</f>
         <v>34547</v>
       </c>
       <c r="B93">
-        <v>44.099368800319333</v>
+        <v>4.0972984911672228E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <f>DATE(1994,9,1)</f>
         <v>34578</v>
       </c>
       <c r="B94">
-        <v>128.2251188436874</v>
+        <v>-8.1754646828485527</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <f>DATE(1994,10,1)</f>
         <v>34608</v>
       </c>
       <c r="B95">
-        <v>37.220274503642237</v>
+        <v>-17.046607183063401</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <f>DATE(1994,11,1)</f>
         <v>34639</v>
       </c>
       <c r="B96">
-        <v>-9.9061187258128029</v>
+        <v>-21.02162836612635</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <f>DATE(1994,12,1)</f>
         <v>34669</v>
       </c>
       <c r="B97">
-        <v>2.0967256609857832</v>
+        <v>-21.9948553004117</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <f>DATE(1995,1,1)</f>
         <v>34700</v>
       </c>
       <c r="B98">
-        <v>-20.72513133353004</v>
+        <v>-20.378174017945941</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <f>DATE(1995,2,1)</f>
         <v>34731</v>
       </c>
       <c r="B99">
-        <v>-72.497161920452015</v>
+        <v>-10.29922836964224</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <f>DATE(1995,3,1)</f>
         <v>34759</v>
       </c>
       <c r="B100">
-        <v>23.789285603895859</v>
+        <v>0.1670072561175151</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <f>DATE(1995,4,1)</f>
         <v>34790</v>
       </c>
       <c r="B101">
-        <v>34.568894240492952</v>
+        <v>12.484489559777471</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <f>DATE(1995,5,1)</f>
         <v>34820</v>
       </c>
       <c r="B102">
-        <v>21.72878677650095</v>
+        <v>27.016487588484921</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <f>DATE(1995,6,1)</f>
         <v>34851</v>
       </c>
       <c r="B103">
-        <v>11.634601748367171</v>
+        <v>38.203555900459293</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <f>DATE(1995,7,1)</f>
         <v>34881</v>
       </c>
       <c r="B104">
-        <v>-19.837364028205101</v>
+        <v>37.578949436430953</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <f>DATE(1995,8,1)</f>
         <v>34912</v>
       </c>
       <c r="B105">
-        <v>-1.4442910457719189</v>
+        <v>36.99385873111887</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <f>DATE(1995,9,1)</f>
         <v>34943</v>
       </c>
       <c r="B106">
-        <v>-22.42211455241026</v>
+        <v>35.826361768070981</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <f>DATE(1995,10,1)</f>
         <v>34973</v>
       </c>
       <c r="B107">
-        <v>-48.353574641517334</v>
+        <v>25.237584171566901</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <f>DATE(1995,11,1)</f>
         <v>35004</v>
       </c>
       <c r="B108">
-        <v>-13.012332331647769</v>
+        <v>16.36191756895013</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <f>DATE(1995,12,1)</f>
         <v>35034</v>
       </c>
       <c r="B109">
-        <v>-3.0649820405104151</v>
+        <v>11.41385350465637</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <f>DATE(1996,1,1)</f>
         <v>35065</v>
       </c>
       <c r="B110">
-        <v>-3.4176525341406432</v>
+        <v>7.0485844963774893</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <f>DATE(1996,2,1)</f>
         <v>35096</v>
       </c>
       <c r="B111">
-        <v>-16.031398087233981</v>
+        <v>5.1441994627431509</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <f>DATE(1996,3,1)</f>
         <v>35125</v>
       </c>
       <c r="B112">
-        <v>10.2372291415906</v>
+        <v>4.6981218755241816</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <f>DATE(1996,4,1)</f>
         <v>35156</v>
       </c>
       <c r="B113">
-        <v>-18.236331620508508</v>
+        <v>4.5210656560248763</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <f>DATE(1996,5,1)</f>
         <v>35186</v>
       </c>
       <c r="B114">
-        <v>-17.646303762213051</v>
+        <v>4.8738110931923639</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <f>DATE(1996,6,1)</f>
         <v>35217</v>
       </c>
       <c r="B115">
-        <v>-36.770323582674337</v>
+        <v>5.8497630079667102</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <f>DATE(1996,7,1)</f>
         <v>35247</v>
       </c>
       <c r="B116">
-        <v>-19.667539897523799</v>
+        <v>5.821811584113723</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <f>DATE(1996,8,1)</f>
         <v>35278</v>
       </c>
       <c r="B117">
-        <v>-44.1026260070239</v>
+        <v>5.4314975806463073</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <f>DATE(1996,9,1)</f>
         <v>35309</v>
       </c>
       <c r="B118">
-        <v>-32.304357140809032</v>
+        <v>4.0297466039214687</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <f>DATE(1996,10,1)</f>
         <v>35339</v>
       </c>
       <c r="B119">
-        <v>17.179147177638811</v>
+        <v>0.69049297970279577</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <f>DATE(1996,11,1)</f>
         <v>35370</v>
       </c>
       <c r="B120">
-        <v>177.86413877405829</v>
+        <v>-7.3666236585148264</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <f>DATE(1996,12,1)</f>
         <v>35400</v>
       </c>
       <c r="B121">
-        <v>5.9665458193001797</v>
+        <v>-15.294774458455199</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <f>DATE(1997,1,1)</f>
         <v>35431</v>
       </c>
       <c r="B122">
-        <v>-34.636371043088161</v>
+        <v>-17.678851690312229</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <f>DATE(1997,2,1)</f>
         <v>35462</v>
       </c>
       <c r="B123">
-        <v>-9.7044470831214227</v>
+        <v>-18.40060946816326</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <f>DATE(1997,3,1)</f>
         <v>35490</v>
       </c>
       <c r="B124">
-        <v>-8.2365244103430655</v>
+        <v>-15.81319687067384</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+      <c r="A125" s="2">
         <f>DATE(1997,4,1)</f>
         <v>35521</v>
       </c>
       <c r="B125">
-        <v>25.936819504397359</v>
+        <v>-8.4794225796454938</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <f>DATE(1997,5,1)</f>
         <v>35551</v>
       </c>
       <c r="B126">
-        <v>-22.6303538222997</v>
+        <v>1.502290492333249</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+      <c r="A127" s="2">
         <f>DATE(1997,6,1)</f>
         <v>35582</v>
       </c>
       <c r="B127">
-        <v>28.789817528768818</v>
+        <v>11.060225733126821</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+      <c r="A128" s="2">
         <f>DATE(1997,7,1)</f>
         <v>35612</v>
       </c>
       <c r="B128">
-        <v>-17.213155231098199</v>
+        <v>21.421597636405341</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="A129" s="2">
         <f>DATE(1997,8,1)</f>
         <v>35643</v>
       </c>
       <c r="B129">
-        <v>11.058093591697951</v>
+        <v>28.73800891653261</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <f>DATE(1997,9,1)</f>
         <v>35674</v>
       </c>
       <c r="B130">
-        <v>-3.7457570008096042</v>
+        <v>28.662871531963031</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+      <c r="A131" s="2">
         <f>DATE(1997,10,1)</f>
         <v>35704</v>
       </c>
       <c r="B131">
-        <v>-33.301873805482288</v>
+        <v>32.072588768356617</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="A132" s="2">
         <f>DATE(1997,11,1)</f>
         <v>35735</v>
       </c>
       <c r="B132">
-        <v>-59.208777640989709</v>
+        <v>27.427188517261751</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+      <c r="A133" s="2">
         <f>DATE(1997,12,1)</f>
         <v>35765</v>
       </c>
       <c r="B133">
-        <v>2.5611395119431681</v>
+        <v>25.572830204921601</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <f>DATE(1998,1,1)</f>
         <v>35796</v>
       </c>
       <c r="B134">
-        <v>-27.721380396245419</v>
+        <v>16.08352920844839</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <f>DATE(1998,2,1)</f>
         <v>35827</v>
       </c>
       <c r="B135">
-        <v>14.179510397155751</v>
+        <v>12.403361375921049</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="A136" s="2">
         <f>DATE(1998,3,1)</f>
         <v>35855</v>
       </c>
       <c r="B136">
-        <v>-11.765051015157891</v>
+        <v>6.5014550598320628</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="A137" s="2">
         <f>DATE(1998,4,1)</f>
         <v>35886</v>
       </c>
       <c r="B137">
-        <v>-13.01594165505594</v>
+        <v>4.6767142129020254</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <f>DATE(1998,5,1)</f>
         <v>35916</v>
       </c>
       <c r="B138">
-        <v>-1.091793080380455</v>
+        <v>2.031350293478587</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="A139" s="2">
         <f>DATE(1998,6,1)</f>
         <v>35947</v>
       </c>
       <c r="B139">
-        <v>-22.72891652034167</v>
+        <v>2.697732040380302</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="A140" s="2">
         <f>DATE(1998,7,1)</f>
         <v>35977</v>
       </c>
       <c r="B140">
-        <v>-10.936136142288211</v>
+        <v>1.0528416887511449</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <f>DATE(1998,8,1)</f>
         <v>36008</v>
       </c>
       <c r="B141">
-        <v>-33.391106414649236</v>
+        <v>-0.61082669513737731</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <f>DATE(1998,9,1)</f>
         <v>36039</v>
       </c>
       <c r="B142">
-        <v>34.908252027136427</v>
+        <v>-6.0807971999942501</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+      <c r="A143" s="2">
         <f>DATE(1998,10,1)</f>
         <v>36069</v>
       </c>
       <c r="B143">
-        <v>115.4967222264161</v>
+        <v>-16.17015975727519</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="A144" s="2">
         <f>DATE(1998,11,1)</f>
         <v>36100</v>
       </c>
       <c r="B144">
-        <v>84.313324920726373</v>
+        <v>-26.359593519591989</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <f>DATE(1998,12,1)</f>
         <v>36130</v>
       </c>
       <c r="B145">
-        <v>17.08208547747034</v>
+        <v>-30.37640008236518</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <f>DATE(1999,1,1)</f>
         <v>36161</v>
       </c>
       <c r="B146">
-        <v>-63.54835861051771</v>
+        <v>-31.803515960568021</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="A147" s="2">
         <f>DATE(1999,2,1)</f>
         <v>36192</v>
       </c>
       <c r="B147">
-        <v>48.734853099269777</v>
+        <v>-29.52093823183429</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="A148" s="2">
         <f>DATE(1999,3,1)</f>
         <v>36220</v>
       </c>
       <c r="B148">
-        <v>-97.594025329524015</v>
+        <v>-16.822820710299322</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="A149" s="2">
         <f>DATE(1999,4,1)</f>
         <v>36251</v>
       </c>
       <c r="B149">
-        <v>106.01795813469531</v>
+        <v>-7.4166362198250466</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <f>DATE(1999,5,1)</f>
         <v>36281</v>
       </c>
       <c r="B150">
-        <v>-48.058358544910561</v>
+        <v>5.4740330296631798</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+      <c r="A151" s="2">
         <f>DATE(1999,6,1)</f>
         <v>36312</v>
       </c>
       <c r="B151">
-        <v>50.329440678708387</v>
+        <v>10.034691476413281</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <f>DATE(1999,7,1)</f>
         <v>36342</v>
       </c>
       <c r="B152">
-        <v>-29.47416499847769</v>
+        <v>21.40294724461253</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <f>DATE(1999,8,1)</f>
         <v>36373</v>
       </c>
       <c r="B153">
-        <v>54.323744322948059</v>
+        <v>23.84769270603126</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <f>DATE(1999,9,1)</f>
         <v>36404</v>
       </c>
       <c r="B154">
-        <v>14.7982085538835</v>
+        <v>17.732258097746598</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <f>DATE(1999,10,1)</f>
         <v>36434</v>
       </c>
       <c r="B155">
-        <v>24.272789177209731</v>
+        <v>19.572820651898581</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <f>DATE(1999,11,1)</f>
         <v>36465</v>
       </c>
       <c r="B156">
-        <v>-42.213992293664496</v>
+        <v>13.16451862425034</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <f>DATE(1999,12,1)</f>
         <v>36495</v>
       </c>
       <c r="B157">
-        <v>13.215287037584901</v>
+        <v>13.044702232646699</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <f>DATE(2000,1,1)</f>
         <v>36526</v>
       </c>
       <c r="B158">
-        <v>48.504349825196343</v>
+        <v>11.76123629699174</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <f>DATE(2000,2,1)</f>
         <v>36557</v>
       </c>
       <c r="B159">
-        <v>40.504431598245823</v>
+        <v>15.66454704852028</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="A160" s="2">
         <f>DATE(2000,3,1)</f>
         <v>36586</v>
       </c>
       <c r="B160">
-        <v>70.464287742070539</v>
+        <v>11.90389393183454</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <f>DATE(2000,4,1)</f>
         <v>36617</v>
       </c>
       <c r="B161">
-        <v>-94.577532244509371</v>
+        <v>8.3543407220611243</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="A162" s="2">
         <f>DATE(2000,5,1)</f>
         <v>36647</v>
       </c>
       <c r="B162">
-        <v>-91.817572660392216</v>
+        <v>3.317387918208333</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+      <c r="A163" s="2">
         <f>DATE(2000,6,1)</f>
         <v>36678</v>
       </c>
       <c r="B163">
-        <v>15.758147998775771</v>
+        <v>2.1530939555954172</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+      <c r="A164" s="2">
         <f>DATE(2000,7,1)</f>
         <v>36708</v>
       </c>
       <c r="B164">
-        <v>-5.6933191429616272</v>
+        <v>0.6929435707283369</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+      <c r="A165" s="2">
         <f>DATE(2000,8,1)</f>
         <v>36739</v>
       </c>
       <c r="B165">
-        <v>-2.4719601769992319</v>
+        <v>-0.64278180116281725</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+      <c r="A166" s="2">
         <f>DATE(2000,9,1)</f>
         <v>36770</v>
       </c>
       <c r="B166">
-        <v>-15.39141901696013</v>
+        <v>-1.0161223571300719</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+      <c r="A167" s="2">
         <f>DATE(2000,10,1)</f>
         <v>36800</v>
       </c>
       <c r="B167">
-        <v>-4.9257647534932971</v>
+        <v>1.1646935903962969</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+      <c r="A168" s="2">
         <f>DATE(2000,11,1)</f>
         <v>36831</v>
       </c>
       <c r="B168">
-        <v>3.1844416656539352</v>
+        <v>1.862271971237071</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+      <c r="A169" s="2">
         <f>DATE(2000,12,1)</f>
         <v>36861</v>
       </c>
       <c r="B169">
-        <v>-7.3028757710180798</v>
+        <v>2.4729092259699379</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="A170" s="2">
         <f>DATE(2001,1,1)</f>
         <v>36892</v>
       </c>
       <c r="B170">
-        <v>-55.110197741535274</v>
+        <v>1.7365534217126981</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+      <c r="A171" s="2">
         <f>DATE(2001,2,1)</f>
         <v>36923</v>
       </c>
       <c r="B171">
-        <v>-33.377494145630351</v>
+        <v>1.07032021253586</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+      <c r="A172" s="2">
         <f>DATE(2001,3,1)</f>
         <v>36951</v>
       </c>
       <c r="B172">
-        <v>-45.112658615588998</v>
+        <v>1.7532128890497909</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+      <c r="A173" s="2">
         <f>DATE(2001,4,1)</f>
         <v>36982</v>
       </c>
       <c r="B173">
-        <v>-48.840744405486127</v>
+        <v>2.175002752730864</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+      <c r="A174" s="2">
         <f>DATE(2001,5,1)</f>
         <v>37012</v>
       </c>
       <c r="B174">
-        <v>-55.134760609646783</v>
+        <v>3.4028783813370578</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+      <c r="A175" s="2">
         <f>DATE(2001,6,1)</f>
         <v>37043</v>
       </c>
       <c r="B175">
-        <v>-81.446447073349248</v>
+        <v>4.2584378615898206</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+      <c r="A176" s="2">
         <f>DATE(2001,7,1)</f>
         <v>37073</v>
       </c>
       <c r="B176">
-        <v>-23.039610836579929</v>
+        <v>1.272675949948098</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+      <c r="A177" s="2">
         <f>DATE(2001,8,1)</f>
         <v>37104</v>
       </c>
       <c r="B177">
-        <v>103.20805880967571</v>
+        <v>-14.495753572453321</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+      <c r="A178" s="2">
         <f>DATE(2001,9,1)</f>
         <v>37135</v>
       </c>
       <c r="B178">
-        <v>10.803646314849219</v>
+        <v>-25.68698075750488</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+      <c r="A179" s="2">
         <f>DATE(2001,10,1)</f>
         <v>37165</v>
       </c>
       <c r="B179">
-        <v>23.426454354915411</v>
+        <v>-38.245753080838597</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+      <c r="A180" s="2">
         <f>DATE(2001,11,1)</f>
         <v>37196</v>
       </c>
       <c r="B180">
-        <v>-3.0070214444028949</v>
+        <v>-47.352247412723237</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+      <c r="A181" s="2">
         <f>DATE(2001,12,1)</f>
         <v>37226</v>
       </c>
       <c r="B181">
-        <v>37.335716317877647</v>
+        <v>-55.831348641740043</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+      <c r="A182" s="2">
         <f>DATE(2002,1,1)</f>
         <v>37257</v>
       </c>
       <c r="B182">
-        <v>-87.835982836125424</v>
+        <v>-50.109589043100279</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+      <c r="A183" s="2">
         <f>DATE(2002,2,1)</f>
         <v>37288</v>
       </c>
       <c r="B183">
-        <v>25.894402485500279</v>
+        <v>-39.597412427636201</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+      <c r="A184" s="2">
         <f>DATE(2002,3,1)</f>
         <v>37316</v>
       </c>
       <c r="B184">
-        <v>-10.959290821026849</v>
+        <v>-19.44365462377985</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+      <c r="A185" s="2">
         <f>DATE(2002,4,1)</f>
         <v>37347</v>
       </c>
       <c r="B185">
-        <v>-36.84098950628271</v>
+        <v>2.391594078383775</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+      <c r="A186" s="2">
         <f>DATE(2002,5,1)</f>
         <v>37377</v>
       </c>
       <c r="B186">
-        <v>38.764838261178873</v>
+        <v>22.513314395981219</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+      <c r="A187" s="2">
         <f>DATE(2002,6,1)</f>
         <v>37408</v>
       </c>
       <c r="B187">
-        <v>-66.768918592946136</v>
+        <v>34.815437584139701</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+      <c r="A188" s="2">
         <f>DATE(2002,7,1)</f>
         <v>37438</v>
       </c>
       <c r="B188">
-        <v>87.799229123780592</v>
+        <v>39.422373866925753</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+      <c r="A189" s="2">
         <f>DATE(2002,8,1)</f>
         <v>37469</v>
       </c>
       <c r="B189">
-        <v>-13.741581927094339</v>
+        <v>43.387400123215897</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+      <c r="A190" s="2">
         <f>DATE(2002,9,1)</f>
         <v>37500</v>
       </c>
       <c r="B190">
-        <v>33.04251315132295</v>
+        <v>39.531645132952342</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+      <c r="A191" s="2">
         <f>DATE(2002,10,1)</f>
         <v>37530</v>
       </c>
       <c r="B191">
-        <v>-67.343790641096703</v>
+        <v>29.166378634644509</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+      <c r="A192" s="2">
         <f>DATE(2002,11,1)</f>
         <v>37561</v>
       </c>
       <c r="B192">
-        <v>-29.923734300832681</v>
+        <v>17.55835680930111</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+      <c r="A193" s="2">
         <f>DATE(2002,12,1)</f>
         <v>37591</v>
       </c>
       <c r="B193">
-        <v>-17.33211127825831</v>
+        <v>11.99738239148399</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+      <c r="A194" s="2">
         <f>DATE(2003,1,1)</f>
         <v>37622</v>
       </c>
       <c r="B194">
-        <v>48.2929578725591</v>
+        <v>9.2089477234591612</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+      <c r="A195" s="2">
         <f>DATE(2003,2,1)</f>
         <v>37653</v>
       </c>
       <c r="B195">
-        <v>17.87626123446114</v>
+        <v>8.8086923612590766</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+      <c r="A196" s="2">
         <f>DATE(2003,3,1)</f>
         <v>37681</v>
       </c>
       <c r="B196">
-        <v>-25.578939652560681</v>
+        <v>9.3342892297754823</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+      <c r="A197" s="2">
         <f>DATE(2003,4,1)</f>
         <v>37712</v>
       </c>
       <c r="B197">
-        <v>-34.817129216058277</v>
+        <v>6.6821477134762448</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+      <c r="A198" s="2">
         <f>DATE(2003,5,1)</f>
         <v>37742</v>
       </c>
       <c r="B198">
-        <v>-5.2488472026001318</v>
+        <v>7.4213156321095468</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+      <c r="A199" s="2">
         <f>DATE(2003,6,1)</f>
         <v>37773</v>
       </c>
       <c r="B199">
-        <v>-12.57037121050246</v>
+        <v>6.0810500085824284</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+      <c r="A200" s="2">
         <f>DATE(2003,7,1)</f>
         <v>37803</v>
       </c>
       <c r="B200">
-        <v>-33.834182135152787</v>
+        <v>4.6878898366513724</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+      <c r="A201" s="2">
         <f>DATE(2003,8,1)</f>
         <v>37834</v>
       </c>
       <c r="B201">
-        <v>-33.871755875121721</v>
+        <v>3.2288427026110691</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+      <c r="A202" s="2">
         <f>DATE(2003,9,1)</f>
         <v>37865</v>
       </c>
       <c r="B202">
-        <v>-15.538935812711371</v>
+        <v>2.560803545902727</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+      <c r="A203" s="2">
         <f>DATE(2003,10,1)</f>
         <v>37895</v>
       </c>
       <c r="B203">
-        <v>-23.47224823485254</v>
+        <v>1.6143819759526601</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+      <c r="A204" s="2">
         <f>DATE(2003,11,1)</f>
         <v>37926</v>
       </c>
       <c r="B204">
-        <v>125.9429787239803</v>
+        <v>-1.425812426256768</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+      <c r="A205" s="2">
         <f>DATE(2003,12,1)</f>
         <v>37956</v>
       </c>
       <c r="B205">
-        <v>112.199614789451</v>
+        <v>-7.7468851408367394</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+      <c r="A206" s="2">
         <f>DATE(2004,1,1)</f>
         <v>37987</v>
       </c>
       <c r="B206">
-        <v>-12.99631825045498</v>
+        <v>-9.0786964953787148</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+      <c r="A207" s="2">
         <f>DATE(2004,2,1)</f>
         <v>38018</v>
       </c>
       <c r="B207">
-        <v>-31.739719615408031</v>
+        <v>-14.821431195249049</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+      <c r="A208" s="2">
         <f>DATE(2004,3,1)</f>
         <v>38047</v>
       </c>
       <c r="B208">
-        <v>6.4810827088131759</v>
+        <v>-14.75080857763608</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+      <c r="A209" s="2">
         <f>DATE(2004,4,1)</f>
         <v>38078</v>
       </c>
       <c r="B209">
-        <v>-12.362327012160851</v>
+        <v>-10.21066160416637</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+      <c r="A210" s="2">
         <f>DATE(2004,5,1)</f>
         <v>38108</v>
       </c>
       <c r="B210">
-        <v>-14.732823450190271</v>
+        <v>-8.5293334766772695</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+      <c r="A211" s="2">
         <f>DATE(2004,6,1)</f>
         <v>38139</v>
       </c>
       <c r="B211">
-        <v>-7.1579111258476047</v>
+        <v>-6.9793686613756867</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+      <c r="A212" s="2">
         <f>DATE(2004,7,1)</f>
         <v>38169</v>
       </c>
       <c r="B212">
-        <v>-0.9176104154275464</v>
+        <v>0.50524273703521161</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+      <c r="A213" s="2">
         <f>DATE(2004,8,1)</f>
         <v>38200</v>
       </c>
       <c r="B213">
-        <v>-5.954123033083377</v>
+        <v>7.53094189670764</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+      <c r="A214" s="2">
         <f>DATE(2004,9,1)</f>
         <v>38231</v>
       </c>
       <c r="B214">
-        <v>13.329372974881741</v>
+        <v>12.13339316670911</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+      <c r="A215" s="2">
         <f>DATE(2004,10,1)</f>
         <v>38261</v>
       </c>
       <c r="B215">
-        <v>10.46800532501388</v>
+        <v>17.589309926051161</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+      <c r="A216" s="2">
         <f>DATE(2004,11,1)</f>
         <v>38292</v>
       </c>
       <c r="B216">
-        <v>-78.632690523668472</v>
+        <v>16.961279432005789</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+      <c r="A217" s="2">
         <f>DATE(2004,12,1)</f>
         <v>38322</v>
       </c>
       <c r="B217">
-        <v>-25.414088010086061</v>
+        <v>12.53393670875845</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+      <c r="A218" s="2">
         <f>DATE(2005,1,1)</f>
         <v>38353</v>
       </c>
       <c r="B218">
-        <v>11.359566271114151</v>
+        <v>9.2997521108126797</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+      <c r="A219" s="2">
         <f>DATE(2005,2,1)</f>
         <v>38384</v>
       </c>
       <c r="B219">
-        <v>47.251645813327571</v>
+        <v>6.4855908593865417</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+      <c r="A220" s="2">
         <f>DATE(2005,3,1)</f>
         <v>38412</v>
       </c>
       <c r="B220">
-        <v>-29.280161540106011</v>
+        <v>3.7768760003076638</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+      <c r="A221" s="2">
         <f>DATE(2005,4,1)</f>
         <v>38443</v>
       </c>
       <c r="B221">
-        <v>-70.935715491091969</v>
+        <v>2.0681528726654128</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+      <c r="A222" s="2">
         <f>DATE(2005,5,1)</f>
         <v>38473</v>
       </c>
       <c r="B222">
-        <v>3.8593926932185241</v>
+        <v>3.580797173971404</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+      <c r="A223" s="2">
         <f>DATE(2005,6,1)</f>
         <v>38504</v>
       </c>
       <c r="B223">
-        <v>-7.6961824849952896</v>
+        <v>4.1146146225948268</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+      <c r="A224" s="2">
         <f>DATE(2005,7,1)</f>
         <v>38534</v>
       </c>
       <c r="B224">
-        <v>-29.718241457960001</v>
+        <v>4.9117176498967234</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+      <c r="A225" s="2">
         <f>DATE(2005,8,1)</f>
         <v>38565</v>
       </c>
       <c r="B225">
-        <v>-22.23801899892209</v>
+        <v>6.0518842721910859</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+      <c r="A226" s="2">
         <f>DATE(2005,9,1)</f>
         <v>38596</v>
       </c>
       <c r="B226">
-        <v>-26.832206748549542</v>
+        <v>6.3095903434517089</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+      <c r="A227" s="2">
         <f>DATE(2005,10,1)</f>
         <v>38626</v>
       </c>
       <c r="B227">
-        <v>-36.613735014033068</v>
+        <v>4.5110770334516914</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+      <c r="A228" s="2">
         <f>DATE(2005,11,1)</f>
         <v>38657</v>
       </c>
       <c r="B228">
-        <v>-61.903294582236242</v>
+        <v>5.1291016038253732</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+      <c r="A229" s="2">
         <f>DATE(2005,12,1)</f>
         <v>38687</v>
       </c>
       <c r="B229">
-        <v>80.463280315695954</v>
+        <v>9.0473114069018195</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+      <c r="A230" s="2">
         <f>DATE(2006,1,1)</f>
         <v>38718</v>
       </c>
       <c r="B230">
-        <v>116.1047691920771</v>
+        <v>13.410306391395849</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+      <c r="A231" s="2">
         <f>DATE(2006,2,1)</f>
         <v>38749</v>
       </c>
       <c r="B231">
-        <v>25.837376190082281</v>
+        <v>11.08460933775438</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+      <c r="A232" s="2">
         <f>DATE(2006,3,1)</f>
         <v>38777</v>
       </c>
       <c r="B232">
-        <v>-2.172485648642521</v>
+        <v>14.721719036064821</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+      <c r="A233" s="2">
         <f>DATE(2006,4,1)</f>
         <v>38808</v>
       </c>
       <c r="B233">
-        <v>-66.17013385642025</v>
+        <v>17.504898572310928</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+      <c r="A234" s="2">
         <f>DATE(2006,5,1)</f>
         <v>38838</v>
       </c>
       <c r="B234">
-        <v>-2.398056478274285</v>
+        <v>14.60557390839592</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+      <c r="A235" s="2">
         <f>DATE(2006,6,1)</f>
         <v>38869</v>
       </c>
       <c r="B235">
-        <v>24.12463772261837</v>
+        <v>10.27510869204438</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+      <c r="A236" s="2">
         <f>DATE(2006,7,1)</f>
         <v>38899</v>
       </c>
       <c r="B236">
-        <v>-35.113679484621677</v>
+        <v>9.8403037828708051</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+      <c r="A237" s="2">
         <f>DATE(2006,8,1)</f>
         <v>38930</v>
       </c>
       <c r="B237">
-        <v>-36.437520377888248</v>
+        <v>10.820436762731291</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+      <c r="A238" s="2">
         <f>DATE(2006,9,1)</f>
         <v>38961</v>
       </c>
       <c r="B238">
-        <v>44.420371692486427</v>
+        <v>11.99475631721706</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+      <c r="A239" s="2">
         <f>DATE(2006,10,1)</f>
         <v>38991</v>
       </c>
       <c r="B239">
-        <v>-21.02053113834101</v>
+        <v>14.67745215856702</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+      <c r="A240" s="2">
         <f>DATE(2006,11,1)</f>
         <v>39022</v>
       </c>
       <c r="B240">
-        <v>41.568816073519017</v>
+        <v>20.938737076769769</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+      <c r="A241" s="2">
         <f>DATE(2006,12,1)</f>
         <v>39052</v>
       </c>
       <c r="B241">
-        <v>-83.980927038673897</v>
+        <v>23.498472192909471</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+      <c r="A242" s="2">
         <f>DATE(2007,1,1)</f>
         <v>39083</v>
       </c>
       <c r="B242">
-        <v>6.2696290303609894</v>
+        <v>26.43117924382506</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+      <c r="A243" s="2">
         <f>DATE(2007,2,1)</f>
         <v>39114</v>
       </c>
       <c r="B243">
-        <v>46.730579418706498</v>
+        <v>26.112127622465419</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+      <c r="A244" s="2">
         <f>DATE(2007,3,1)</f>
         <v>39142</v>
       </c>
       <c r="B244">
-        <v>-36.724186744488961</v>
+        <v>24.493978199550639</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+      <c r="A245" s="2">
         <f>DATE(2007,4,1)</f>
         <v>39173</v>
       </c>
       <c r="B245">
-        <v>-82.248766208241761</v>
+        <v>17.053229935515311</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+      <c r="A246" s="2">
         <f>DATE(2007,5,1)</f>
         <v>39203</v>
       </c>
       <c r="B246">
-        <v>-5.6718352963403049</v>
+        <v>10.47544101758943</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+      <c r="A247" s="2">
         <f>DATE(2007,6,1)</f>
         <v>39234</v>
       </c>
       <c r="B247">
-        <v>3.115181893981458</v>
+        <v>7.7268286459441171</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+      <c r="A248" s="2">
         <f>DATE(2007,7,1)</f>
         <v>39264</v>
       </c>
       <c r="B248">
-        <v>-35.172711008325678</v>
+        <v>5.055180606131005</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+      <c r="A249" s="2">
         <f>DATE(2007,8,1)</f>
         <v>39295</v>
       </c>
       <c r="B249">
-        <v>-7.4987582427917232</v>
+        <v>3.8100199676998829</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+      <c r="A250" s="2">
         <f>DATE(2007,9,1)</f>
         <v>39326</v>
       </c>
       <c r="B250">
-        <v>-26.106567543546191</v>
+        <v>1.989319854452114</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+      <c r="A251" s="2">
         <f>DATE(2007,10,1)</f>
         <v>39356</v>
       </c>
       <c r="B251">
-        <v>-13.8087775316456</v>
+        <v>-0.22407688728146341</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+      <c r="A252" s="2">
         <f>DATE(2007,11,1)</f>
         <v>39387</v>
       </c>
       <c r="B252">
-        <v>0.4628308880759846</v>
+        <v>-2.3228385880702311</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+      <c r="A253" s="2">
         <f>DATE(2007,12,1)</f>
         <v>39417</v>
       </c>
       <c r="B253">
-        <v>221.57934885363929</v>
+        <v>-13.394606237428549</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+      <c r="A254" s="2">
         <f>DATE(2008,1,1)</f>
         <v>39448</v>
       </c>
       <c r="B254">
-        <v>-72.889485560982777</v>
+        <v>-23.345675246209659</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+      <c r="A255" s="2">
         <f>DATE(2008,2,1)</f>
         <v>39479</v>
       </c>
       <c r="B255">
-        <v>85.181162132678693</v>
+        <v>-28.611165034156979</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+      <c r="A256" s="2">
         <f>DATE(2008,3,1)</f>
         <v>39508</v>
       </c>
       <c r="B256">
-        <v>-37.333632428562112</v>
+        <v>-24.659178142855101</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+      <c r="A257" s="2">
         <f>DATE(2008,4,1)</f>
         <v>39539</v>
       </c>
       <c r="B257">
-        <v>6.1167733899630434</v>
+        <v>-19.39608553534687</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+      <c r="A258" s="2">
         <f>DATE(2008,5,1)</f>
         <v>39569</v>
       </c>
       <c r="B258">
-        <v>-46.028839815913393</v>
+        <v>-17.855773366485352</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
+      <c r="A259" s="2">
         <f>DATE(2008,6,1)</f>
         <v>39600</v>
       </c>
       <c r="B259">
-        <v>68.0303496279585</v>
+        <v>-16.204596498474221</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
+      <c r="A260" s="2">
         <f>DATE(2008,7,1)</f>
         <v>39630</v>
       </c>
       <c r="B260">
-        <v>-50.034011079449947</v>
+        <v>-7.6981986033921048</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
+      <c r="A261" s="2">
         <f>DATE(2008,8,1)</f>
         <v>39661</v>
       </c>
       <c r="B261">
-        <v>41.485642377668327</v>
+        <v>-2.8673764162758761</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
+      <c r="A262" s="2">
         <f>DATE(2008,9,1)</f>
         <v>39692</v>
       </c>
       <c r="B262">
-        <v>10.247091383473551</v>
+        <v>4.0199224413091663</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
+      <c r="A263" s="2">
         <f>DATE(2008,10,1)</f>
         <v>39722</v>
       </c>
       <c r="B263">
-        <v>-0.67594897293328415</v>
+        <v>10.838959388348419</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="3">
+      <c r="A264" s="2">
         <f>DATE(2008,11,1)</f>
         <v>39753</v>
       </c>
       <c r="B264">
-        <v>-6.9002760299170944</v>
+        <v>16.632281957813191</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
+      <c r="A265" s="2">
         <f>DATE(2008,12,1)</f>
         <v>39783</v>
       </c>
       <c r="B265">
-        <v>72.066822923931468</v>
+        <v>19.644695257680539</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
+      <c r="A266" s="2">
         <f>DATE(2009,1,1)</f>
         <v>39814</v>
       </c>
       <c r="B266">
-        <v>27.57040186916679</v>
+        <v>17.352892971268862</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="3">
+      <c r="A267" s="2">
         <f>DATE(2009,2,1)</f>
         <v>39845</v>
       </c>
       <c r="B267">
-        <v>76.20369420242271</v>
+        <v>16.95854531468213</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="3">
+      <c r="A268" s="2">
         <f>DATE(2009,3,1)</f>
         <v>39873</v>
       </c>
       <c r="B268">
-        <v>-3.316717229146136</v>
+        <v>14.32161813237008</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="3">
+      <c r="A269" s="2">
         <f>DATE(2009,4,1)</f>
         <v>39904</v>
       </c>
       <c r="B269">
-        <v>-10.15737075477675</v>
+        <v>12.49224003679841</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
+      <c r="A270" s="2">
         <f>DATE(2009,5,1)</f>
         <v>39934</v>
       </c>
       <c r="B270">
-        <v>-122.4228645193961</v>
+        <v>4.8852129004446283</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
+      <c r="A271" s="2">
         <f>DATE(2009,6,1)</f>
         <v>39965</v>
       </c>
       <c r="B271">
-        <v>-11.053362617702019</v>
+        <v>2.5575994033699732</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
+      <c r="A272" s="2">
         <f>DATE(2009,7,1)</f>
         <v>39995</v>
       </c>
       <c r="B272">
-        <v>2.0008583410997862</v>
+        <v>1.073951100627609</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
+      <c r="A273" s="2">
         <f>DATE(2009,8,1)</f>
         <v>40026</v>
       </c>
       <c r="B273">
-        <v>22.56023541859031</v>
+        <v>1.988648733036892</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
+      <c r="A274" s="2">
         <f>DATE(2009,9,1)</f>
         <v>40057</v>
       </c>
       <c r="B274">
-        <v>10.32580272933154</v>
+        <v>1.470186514864956</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
+      <c r="A275" s="2">
         <f>DATE(2009,10,1)</f>
         <v>40087</v>
       </c>
       <c r="B275">
-        <v>-4.1958147112149504</v>
+        <v>3.5838908059910888</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
+      <c r="A276" s="2">
         <f>DATE(2009,11,1)</f>
         <v>40118</v>
       </c>
       <c r="B276">
-        <v>2.3587925471866238</v>
+        <v>3.6662567479303361</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
+      <c r="A277" s="2">
         <f>DATE(2009,12,1)</f>
         <v>40148</v>
       </c>
       <c r="B277">
-        <v>-12.4305932737966</v>
+        <v>3.1993653109543949</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
+      <c r="A278" s="2">
         <f>DATE(2010,1,1)</f>
         <v>40179</v>
       </c>
       <c r="B278">
-        <v>-15.43104401043087</v>
+        <v>1.7273231630690351</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="3">
+      <c r="A279" s="2">
         <f>DATE(2010,2,1)</f>
         <v>40210</v>
       </c>
       <c r="B279">
-        <v>-36.495956950954003</v>
+        <v>0.31886882288748081</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
+      <c r="A280" s="2">
         <f>DATE(2010,3,1)</f>
         <v>40238</v>
       </c>
       <c r="B280">
-        <v>-26.439064916615909</v>
+        <v>-0.1337134672654918</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
+      <c r="A281" s="2">
         <f>DATE(2010,4,1)</f>
         <v>40269</v>
       </c>
       <c r="B281">
-        <v>-30.986592974165831</v>
+        <v>-1.491152279551079</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="3">
+      <c r="A282" s="2">
         <f>DATE(2010,5,1)</f>
         <v>40299</v>
       </c>
       <c r="B282">
-        <v>-36.77840384389134</v>
+        <v>-1.854065662142482</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="3">
+      <c r="A283" s="2">
         <f>DATE(2010,6,1)</f>
         <v>40330</v>
       </c>
       <c r="B283">
-        <v>44.578728951986989</v>
+        <v>-3.8144767865675471</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
+      <c r="A284" s="2">
         <f>DATE(2010,7,1)</f>
         <v>40360</v>
       </c>
       <c r="B284">
-        <v>191.91052235348471</v>
+        <v>-7.7602574564509306</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="3">
+      <c r="A285" s="2">
         <f>DATE(2010,8,1)</f>
         <v>40391</v>
       </c>
       <c r="B285">
-        <v>-65.664990792080857</v>
+        <v>-7.9914839400512534</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
+      <c r="A286" s="2">
         <f>DATE(2010,9,1)</f>
         <v>40422</v>
       </c>
       <c r="B286">
-        <v>-10.09641673200707</v>
+        <v>-8.3205632737190776</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="3">
+      <c r="A287" s="2">
         <f>DATE(2010,10,1)</f>
         <v>40452</v>
       </c>
       <c r="B287">
-        <v>-34.632742469551602</v>
+        <v>-8.1932102011203547</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="3">
+      <c r="A288" s="2">
         <f>DATE(2010,11,1)</f>
         <v>40483</v>
       </c>
       <c r="B288">
-        <v>1.7804920245693689</v>
+        <v>-0.52943258193408349</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="3">
+      <c r="A289" s="2">
         <f>DATE(2010,12,1)</f>
         <v>40513</v>
       </c>
       <c r="B289">
-        <v>-43.618891385612429</v>
+        <v>2.6251543221730951</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="3">
+      <c r="A290" s="2">
         <f>DATE(2011,1,1)</f>
         <v>40544</v>
       </c>
       <c r="B290">
-        <v>4.4205229108690247</v>
+        <v>6.3093266244965127</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
+      <c r="A291" s="2">
         <f>DATE(2011,2,1)</f>
         <v>40575</v>
       </c>
       <c r="B291">
-        <v>27.403001120658711</v>
+        <v>5.5841929496261056</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
+      <c r="A292" s="2">
         <f>DATE(2011,3,1)</f>
         <v>40603</v>
       </c>
       <c r="B292">
-        <v>17.262779310567179</v>
+        <v>4.2135024797636422</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
+      <c r="A293" s="2">
         <f>DATE(2011,4,1)</f>
         <v>40634</v>
       </c>
       <c r="B293">
-        <v>-2.069537890340555</v>
+        <v>4.488853177281861</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
+      <c r="A294" s="2">
         <f>DATE(2011,5,1)</f>
         <v>40664</v>
       </c>
       <c r="B294">
-        <v>-28.604611948747831</v>
+        <v>-0.6287471409295482</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
+      <c r="A295" s="2">
         <f>DATE(2011,6,1)</f>
         <v>40695</v>
       </c>
       <c r="B295">
-        <v>-86.409636980598819</v>
+        <v>2.1494915218401092</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="3">
+      <c r="A296" s="2">
         <f>DATE(2011,7,1)</f>
         <v>40725</v>
       </c>
       <c r="B296">
-        <v>12.026794956045309</v>
+        <v>-0.15870052572779489</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="3">
+      <c r="A297" s="2">
         <f>DATE(2011,8,1)</f>
         <v>40756</v>
       </c>
       <c r="B297">
-        <v>22.86231837668268</v>
+        <v>-2.471089807952636</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
+      <c r="A298" s="2">
         <f>DATE(2011,9,1)</f>
         <v>40787</v>
       </c>
       <c r="B298">
-        <v>-31.725181607105359</v>
+        <v>-3.133295732200402</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="3">
+      <c r="A299" s="2">
         <f>DATE(2011,10,1)</f>
         <v>40817</v>
       </c>
       <c r="B299">
-        <v>-15.244008034870999</v>
+        <v>-3.4309433385831221</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="3">
+      <c r="A300" s="2">
         <f>DATE(2011,11,1)</f>
         <v>40848</v>
       </c>
       <c r="B300">
-        <v>-35.036203835910158</v>
+        <v>-3.2324493169522599</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="3">
+      <c r="A301" s="2">
         <f>DATE(2011,12,1)</f>
         <v>40878</v>
       </c>
       <c r="B301">
-        <v>-4.3008637210689358</v>
+        <v>-1.8190051565042571</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="3">
+      <c r="A302" s="2">
         <f>DATE(2012,1,1)</f>
         <v>40909</v>
       </c>
       <c r="B302">
-        <v>-1.219766811184684</v>
+        <v>-3.4573441677377552</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="3">
+      <c r="A303" s="2">
         <f>DATE(2012,2,1)</f>
         <v>40940</v>
       </c>
       <c r="B303">
-        <v>-12.950111572557431</v>
+        <v>-1.5631157340414099</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
+      <c r="A304" s="2">
         <f>DATE(2012,3,1)</f>
         <v>40969</v>
       </c>
       <c r="B304">
-        <v>-20.302480091665469</v>
+        <v>1.021229395736118</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="3">
+      <c r="A305" s="2">
         <f>DATE(2012,4,1)</f>
         <v>41000</v>
       </c>
       <c r="B305">
-        <v>-36.240812582655167</v>
+        <v>1.63630739468335</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="3">
+      <c r="A306" s="2">
         <f>DATE(2012,5,1)</f>
         <v>41030</v>
       </c>
       <c r="B306">
-        <v>-47.587967663960512</v>
+        <v>2.0680958704244601</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
+      <c r="A307" s="2">
         <f>DATE(2012,6,1)</f>
         <v>41061</v>
       </c>
       <c r="B307">
-        <v>-34.550757284726608</v>
+        <v>2.4922658660424011</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="3">
+      <c r="A308" s="2">
         <f>DATE(2012,7,1)</f>
         <v>41091</v>
       </c>
       <c r="B308">
-        <v>-39.264185808973593</v>
+        <v>3.4390876184359249</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
+      <c r="A309" s="2">
         <f>DATE(2012,8,1)</f>
         <v>41122</v>
       </c>
       <c r="B309">
-        <v>-45.363436522691643</v>
+        <v>2.6021187202151461</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="3">
+      <c r="A310" s="2">
         <f>DATE(2012,9,1)</f>
         <v>41153</v>
       </c>
       <c r="B310">
-        <v>-11.45031144643508</v>
+        <v>3.0810846124387861</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="3">
+      <c r="A311" s="2">
         <f>DATE(2012,10,1)</f>
         <v>41183</v>
       </c>
       <c r="B311">
-        <v>-51.738842611782793</v>
+        <v>1.5769265657537821</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="3">
+      <c r="A312" s="2">
         <f>DATE(2012,11,1)</f>
         <v>41214</v>
       </c>
       <c r="B312">
-        <v>125.69481554253321</v>
+        <v>0.38247629882112832</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="3">
+      <c r="A313" s="2">
         <f>DATE(2012,12,1)</f>
         <v>41244</v>
       </c>
       <c r="B313">
-        <v>66.408852350422748</v>
+        <v>3.3436981703529458</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="3">
+      <c r="A314" s="2">
         <f>DATE(2013,1,1)</f>
         <v>41275</v>
       </c>
       <c r="B314">
-        <v>-34.942182623178951</v>
+        <v>-1.568499931419141</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="3">
+      <c r="A315" s="2">
         <f>DATE(2013,2,1)</f>
         <v>41306</v>
       </c>
       <c r="B315">
-        <v>-18.826069138969562</v>
+        <v>-1.993435871574746</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="3">
+      <c r="A316" s="2">
         <f>DATE(2013,3,1)</f>
         <v>41334</v>
       </c>
       <c r="B316">
-        <v>-34.487576025749952</v>
+        <v>-8.7451875019067558</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="3">
+      <c r="A317" s="2">
         <f>DATE(2013,4,1)</f>
         <v>41365</v>
       </c>
       <c r="B317">
-        <v>-5.0090378285530051</v>
+        <v>-7.9923747436426487</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="3">
+      <c r="A318" s="2">
         <f>DATE(2013,5,1)</f>
         <v>41395</v>
       </c>
       <c r="B318">
-        <v>8.0666597662697654</v>
+        <v>-8.1575269064526807</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="3">
+      <c r="A319" s="2">
         <f>DATE(2013,6,1)</f>
         <v>41426</v>
       </c>
       <c r="B319">
-        <v>17.987413684135049</v>
+        <v>0.3062729957071546</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="3">
+      <c r="A320" s="2">
         <f>DATE(2013,7,1)</f>
         <v>41456</v>
       </c>
       <c r="B320">
-        <v>-9.3529003876550973</v>
+        <v>-11.826295574691541</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="3">
+      <c r="A321" s="2">
         <f>DATE(2013,8,1)</f>
         <v>41487</v>
       </c>
       <c r="B321">
-        <v>21.787270505917991</v>
+        <v>-8.2006794624230146</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="3">
+      <c r="A322" s="2">
         <f>DATE(2013,9,1)</f>
         <v>41518</v>
       </c>
       <c r="B322">
-        <v>20.89910192150667</v>
+        <v>-9.7932890464554987</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="3">
+      <c r="A323" s="2">
         <f>DATE(2013,10,1)</f>
         <v>41548</v>
       </c>
       <c r="B323">
-        <v>-14.69876679428204</v>
+        <v>-3.4355788592117369</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="3">
+      <c r="A324" s="2">
         <f>DATE(2013,11,1)</f>
         <v>41579</v>
       </c>
       <c r="B324">
-        <v>50.604966536429302</v>
+        <v>-6.8861600464380794</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="3">
+      <c r="A325" s="2">
         <f>DATE(2013,12,1)</f>
         <v>41609</v>
       </c>
       <c r="B325">
-        <v>16.492221309303218</v>
+        <v>-14.65823408285093</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="3">
+      <c r="A326" s="2">
         <f>DATE(2014,1,1)</f>
         <v>41640</v>
       </c>
       <c r="B326">
-        <v>78.813022913186146</v>
+        <v>-19.711631171248801</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="3">
+      <c r="A327" s="2">
         <f>DATE(2014,2,1)</f>
         <v>41671</v>
       </c>
       <c r="B327">
-        <v>12.971843017144369</v>
+        <v>-25.485678897096829</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="3">
+      <c r="A328" s="2">
         <f>DATE(2014,3,1)</f>
         <v>41699</v>
       </c>
       <c r="B328">
-        <v>33.790975778011493</v>
+        <v>-24.181652020387801</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="3">
+      <c r="A329" s="2">
         <f>DATE(2014,4,1)</f>
         <v>41730</v>
       </c>
       <c r="B329">
-        <v>-71.770585365787738</v>
+        <v>-17.634366111401309</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="3">
+      <c r="A330" s="2">
         <f>DATE(2014,5,1)</f>
         <v>41760</v>
       </c>
       <c r="B330">
-        <v>-121.26113824703501</v>
+        <v>-7.0007056657030189</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="3">
+      <c r="A331" s="2">
         <f>DATE(2014,6,1)</f>
         <v>41791</v>
       </c>
       <c r="B331">
-        <v>63.207608601169852</v>
+        <v>-3.844423956871823</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="3">
+      <c r="A332" s="2">
         <f>DATE(2014,7,1)</f>
         <v>41821</v>
       </c>
       <c r="B332">
-        <v>-23.00251305031043</v>
+        <v>-1.787317498669394</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="3">
+      <c r="A333" s="2">
         <f>DATE(2014,8,1)</f>
         <v>41852</v>
       </c>
       <c r="B333">
-        <v>12.418145030028819</v>
+        <v>1.178877110395198</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="3">
+      <c r="A334" s="2">
         <f>DATE(2014,9,1)</f>
         <v>41883</v>
       </c>
       <c r="B334">
-        <v>-7.1651488226549986</v>
+        <v>0.8739272994313132</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="3">
+      <c r="A335" s="2">
         <f>DATE(2014,10,1)</f>
         <v>41913</v>
       </c>
       <c r="B335">
-        <v>-0.1070130896906107</v>
+        <v>1.931744846571934</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="3">
+      <c r="A336" s="2">
         <f>DATE(2014,11,1)</f>
         <v>41944</v>
       </c>
       <c r="B336">
-        <v>-12.72544196379312</v>
+        <v>1.624322126227556</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="3">
+      <c r="A337" s="2">
         <f>DATE(2014,12,1)</f>
         <v>41974</v>
       </c>
       <c r="B337">
-        <v>4.6093150501525324</v>
+        <v>4.0871868156461284</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="3">
+      <c r="A338" s="2">
         <f>DATE(2015,1,1)</f>
         <v>42005</v>
       </c>
       <c r="B338">
-        <v>-20.27340495435271</v>
+        <v>2.9842032860288281</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="3">
+      <c r="A339" s="2">
         <f>DATE(2015,2,1)</f>
         <v>42036</v>
       </c>
       <c r="B339">
-        <v>-14.50162952109253</v>
+        <v>4.5847595808345396</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="3">
+      <c r="A340" s="2">
         <f>DATE(2015,3,1)</f>
         <v>42064</v>
       </c>
       <c r="B340">
-        <v>-41.063070149919952</v>
+        <v>0.3498179276049842</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="3">
+      <c r="A341" s="2">
         <f>DATE(2015,4,1)</f>
         <v>42095</v>
       </c>
       <c r="B341">
-        <v>33.94416709544123</v>
+        <v>-7.7734463405818133E-2</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="3">
+      <c r="A342" s="2">
         <f>DATE(2015,5,1)</f>
         <v>42125</v>
       </c>
       <c r="B342">
-        <v>172.65153676308779</v>
+        <v>-4.9588332951001606</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="3">
+      <c r="A343" s="2">
         <f>DATE(2015,6,1)</f>
         <v>42156</v>
       </c>
       <c r="B343">
-        <v>-23.494181992922829</v>
+        <v>-10.172154258315601</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="3">
+      <c r="A344" s="2">
         <f>DATE(2015,7,1)</f>
         <v>42186</v>
       </c>
       <c r="B344">
-        <v>12.626099669486001</v>
+        <v>-16.60383544808483</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="3">
+      <c r="A345" s="2">
         <f>DATE(2015,8,1)</f>
         <v>42217</v>
       </c>
       <c r="B345">
-        <v>-23.231334770620439</v>
+        <v>-18.05110659787616</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="3">
+      <c r="A346" s="2">
         <f>DATE(2015,9,1)</f>
         <v>42248</v>
       </c>
       <c r="B346">
-        <v>6.5212415284808003</v>
+        <v>-21.28243681235065</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="3">
+      <c r="A347" s="2">
         <f>DATE(2015,10,1)</f>
         <v>42278</v>
       </c>
       <c r="B347">
-        <v>-50.556189298389029</v>
+        <v>-24.027396559775461</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="3">
+      <c r="A348" s="2">
         <f>DATE(2015,11,1)</f>
         <v>42309</v>
       </c>
       <c r="B348">
-        <v>39.534426883659009</v>
+        <v>-16.455593442809981</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="3">
+      <c r="A349" s="2">
         <f>DATE(2015,12,1)</f>
         <v>42339</v>
       </c>
       <c r="B349">
-        <v>-31.420850518709241</v>
+        <v>-12.513785740465931</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="3">
+      <c r="A350" s="2">
         <f>DATE(2016,1,1)</f>
         <v>42370</v>
       </c>
       <c r="B350">
-        <v>33.327340862106063</v>
+        <v>-6.9748747441572911</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="3">
+      <c r="A351" s="2">
         <f>DATE(2016,2,1)</f>
         <v>42401</v>
       </c>
       <c r="B351">
-        <v>29.564629627640169</v>
+        <v>-0.40357873716041293</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="3">
+      <c r="A352" s="2">
         <f>DATE(2016,3,1)</f>
         <v>42430</v>
       </c>
       <c r="B352">
-        <v>16.316972519023391</v>
+        <v>0.67159090957839696</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="3">
+      <c r="A353" s="2">
         <f>DATE(2016,4,1)</f>
         <v>42461</v>
       </c>
       <c r="B353">
-        <v>16.142529898198902</v>
+        <v>7.1504396269695008</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
+      <c r="A354" s="2">
         <f>DATE(2016,5,1)</f>
         <v>42491</v>
       </c>
       <c r="B354">
-        <v>48.375725421593692</v>
+        <v>9.098208678908982</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="3">
+      <c r="A355" s="2">
         <f>DATE(2016,6,1)</f>
         <v>42522</v>
       </c>
       <c r="B355">
-        <v>17.32828652136401</v>
+        <v>10.848004113768109</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="3">
+      <c r="A356" s="2">
         <f>DATE(2016,7,1)</f>
         <v>42552</v>
       </c>
       <c r="B356">
-        <v>49.319439062081862</v>
+        <v>7.2504326255011859</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="3">
+      <c r="A357" s="2">
         <f>DATE(2016,8,1)</f>
         <v>42583</v>
       </c>
       <c r="B357">
-        <v>80.508326268853708</v>
+        <v>13.233714210034931</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
+      <c r="A358" s="2">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
       </c>
       <c r="B358">
-        <v>29.412319838902661</v>
+        <v>-1.801639727979532</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="3">
+      <c r="A359" s="2">
         <f>DATE(2016,10,1)</f>
         <v>42644</v>
       </c>
       <c r="B359">
-        <v>59.400481901592038</v>
+        <v>0.72971567946062377</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="3">
+      <c r="A360" s="2">
         <f>DATE(2016,11,1)</f>
         <v>42675</v>
       </c>
       <c r="B360">
-        <v>59.715801920203482</v>
+        <v>-5.4464986021336168</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="3">
+      <c r="A361" s="2">
         <f>DATE(2016,12,1)</f>
         <v>42705</v>
       </c>
       <c r="B361">
-        <v>38.568899798169276</v>
+        <v>-7.1859714583123511</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
+      <c r="A362" s="2">
         <f>DATE(2017,1,1)</f>
         <v>42736</v>
       </c>
       <c r="B362">
-        <v>57.013681716933192</v>
+        <v>-7.4921637392461742</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="3">
+      <c r="A363" s="2">
         <f>DATE(2017,2,1)</f>
         <v>42767</v>
       </c>
       <c r="B363">
-        <v>62.880603884071192</v>
+        <v>-7.697368036495857</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="3">
+      <c r="A364" s="2">
         <f>DATE(2017,3,1)</f>
         <v>42795</v>
       </c>
       <c r="B364">
-        <v>31.87208688282719</v>
+        <v>-7.6262344344384649</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="3">
+      <c r="A365" s="2">
         <f>DATE(2017,4,1)</f>
         <v>42826</v>
       </c>
       <c r="B365">
-        <v>41.47131619814472</v>
+        <v>-4.0293746399130574</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="3">
+      <c r="A366" s="2">
         <f>DATE(2017,5,1)</f>
         <v>42856</v>
       </c>
       <c r="B366">
-        <v>-134.57171862012979</v>
+        <v>-3.0544909720993112</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="3">
+      <c r="A367" s="2">
         <f>DATE(2017,6,1)</f>
         <v>42887</v>
       </c>
       <c r="B367">
-        <v>-41.900902331734471</v>
+        <v>-0.16242016246319249</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="3">
+      <c r="A368" s="2">
         <f>DATE(2017,7,1)</f>
         <v>42917</v>
       </c>
       <c r="B368">
-        <v>44.083334269315863</v>
+        <v>2.4909632787349079</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="3">
+      <c r="A369" s="2">
         <f>DATE(2017,8,1)</f>
         <v>42948</v>
       </c>
       <c r="B369">
-        <v>14.40730194223079</v>
+        <v>2.5842060057390941</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="3">
+      <c r="A370" s="2">
         <f>DATE(2017,9,1)</f>
         <v>42979</v>
       </c>
       <c r="B370">
-        <v>13.284836941040281</v>
+        <v>2.0135366182071439</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="3">
+      <c r="A371" s="2">
         <f>DATE(2017,10,1)</f>
         <v>43009</v>
       </c>
       <c r="B371">
-        <v>22.724296585411079</v>
+        <v>1.1409357452370279</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="3">
+      <c r="A372" s="2">
         <f>DATE(2017,11,1)</f>
         <v>43040</v>
       </c>
       <c r="B372">
-        <v>21.383818011255471</v>
+        <v>1.106542823421597E-2</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="3">
+      <c r="A373" s="2">
         <f>DATE(2017,12,1)</f>
         <v>43070</v>
       </c>
       <c r="B373">
-        <v>-2.3647458935488999</v>
+        <v>0.79416273093615353</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="3">
+      <c r="A374" s="2">
         <f>DATE(2018,1,1)</f>
         <v>43101</v>
       </c>
       <c r="B374">
-        <v>-15.23512029534362</v>
+        <v>1.435182345188545</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="3">
+      <c r="A375" s="2">
         <f>DATE(2018,2,1)</f>
         <v>43132</v>
       </c>
       <c r="B375">
-        <v>-23.634502227564159</v>
+        <v>0.99905723312606609</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="3">
+      <c r="A376" s="2">
         <f>DATE(2018,3,1)</f>
         <v>43160</v>
       </c>
       <c r="B376">
-        <v>-26.86137399165051</v>
+        <v>1.458212088598001</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="3">
+      <c r="A377" s="2">
         <f>DATE(2018,4,1)</f>
         <v>43191</v>
       </c>
       <c r="B377">
-        <v>-25.3486107119009</v>
+        <v>3.2816065909236678</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="3">
+      <c r="A378" s="2">
         <f>DATE(2018,5,1)</f>
         <v>43221</v>
       </c>
       <c r="B378">
-        <v>-41.84323091595553</v>
+        <v>0.54874408552324194</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="3">
+      <c r="A379" s="2">
         <f>DATE(2018,6,1)</f>
         <v>43252</v>
       </c>
       <c r="B379">
-        <v>-62.272677568549973</v>
+        <v>2.5968726957453452</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="3">
+      <c r="A380" s="2">
         <f>DATE(2018,7,1)</f>
         <v>43282</v>
       </c>
       <c r="B380">
-        <v>-33.178491306415538</v>
+        <v>2.156515217135246</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="3">
+      <c r="A381" s="2">
         <f>DATE(2018,8,1)</f>
         <v>43313</v>
       </c>
       <c r="B381">
-        <v>187.332531283679</v>
+        <v>2.726946010786421</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="3">
+      <c r="A382" s="2">
         <f>DATE(2018,9,1)</f>
         <v>43344</v>
       </c>
       <c r="B382">
-        <v>24.174840272075901</v>
+        <v>-1.6088397493649469</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="3">
+      <c r="A383" s="2">
         <f>DATE(2018,10,1)</f>
         <v>43374</v>
       </c>
       <c r="B383">
-        <v>2.6045306164921129</v>
+        <v>0.1462340876160195</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="3">
+      <c r="A384" s="2">
         <f>DATE(2018,11,1)</f>
         <v>43405</v>
       </c>
       <c r="B384">
-        <v>-8.3592741410581084</v>
+        <v>-7.351122069914994</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="3">
+      <c r="A385" s="2">
         <f>DATE(2018,12,1)</f>
         <v>43435</v>
       </c>
       <c r="B385">
-        <v>-7.5504636049382734</v>
+        <v>-7.0345496204833848</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="3">
+      <c r="A386" s="2">
         <f>DATE(2019,1,1)</f>
         <v>43466</v>
       </c>
       <c r="B386">
-        <v>-33.760189899247507</v>
+        <v>-11.57019962789157</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="3">
+      <c r="A387" s="2">
         <f>DATE(2019,2,1)</f>
         <v>43497</v>
       </c>
       <c r="B387">
-        <v>-63.422028658208887</v>
+        <v>-16.442276086365119</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="3">
+      <c r="A388" s="2">
         <f>DATE(2019,3,1)</f>
         <v>43525</v>
       </c>
       <c r="B388">
-        <v>106.3664672339447</v>
+        <v>-32.263851039069273</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="3">
+      <c r="A389" s="2">
         <f>DATE(2019,4,1)</f>
         <v>43556</v>
       </c>
       <c r="B389">
-        <v>-40.286719318064968</v>
+        <v>-41.072598185414869</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="3">
+      <c r="A390" s="2">
         <f>DATE(2019,5,1)</f>
         <v>43586</v>
       </c>
       <c r="B390">
-        <v>49.661610702508362</v>
+        <v>-48.192687181543903</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="3">
+      <c r="A391" s="2">
         <f>DATE(2019,6,1)</f>
         <v>43617</v>
       </c>
       <c r="B391">
-        <v>-29.726634692946451</v>
+        <v>-41.302097254777379</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="3">
+      <c r="A392" s="2">
         <f>DATE(2019,7,1)</f>
         <v>43647</v>
       </c>
       <c r="B392">
-        <v>45.364471512300092</v>
+        <v>-37.6700510049359</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="3">
+      <c r="A393" s="2">
         <f>DATE(2019,8,1)</f>
         <v>43678</v>
       </c>
       <c r="B393">
-        <v>-12.9322371661947</v>
+        <v>-27.155940638693661</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="3">
+      <c r="A394" s="2">
         <f>DATE(2019,9,1)</f>
         <v>43709</v>
       </c>
       <c r="B394">
-        <v>56.467465984307168</v>
+        <v>-19.195010878536181</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="3">
+      <c r="A395" s="2">
         <f>DATE(2019,10,1)</f>
         <v>43739</v>
       </c>
       <c r="B395">
-        <v>-25.596655192386901</v>
+        <v>-11.099093256517509</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="3">
+      <c r="A396" s="2">
         <f>DATE(2019,11,1)</f>
         <v>43770</v>
       </c>
       <c r="B396">
-        <v>-4.2455251547057324</v>
+        <v>-1.323643714845401</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="3">
+      <c r="A397" s="2">
         <f>DATE(2019,12,1)</f>
         <v>43800</v>
       </c>
       <c r="B397">
-        <v>-8.8882278470354947</v>
+        <v>3.983480098017437</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="3">
+      <c r="A398" s="2">
         <f>DATE(2020,1,1)</f>
         <v>43831</v>
       </c>
       <c r="B398">
-        <v>63.882739069377287</v>
+        <v>2.8067268741235338</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="3">
+      <c r="A399" s="2">
         <f>DATE(2020,2,1)</f>
         <v>43862</v>
       </c>
       <c r="B399">
-        <v>61.077539060647453</v>
+        <v>9.2010465225618532</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="3">
+      <c r="A400" s="2">
         <f>DATE(2020,3,1)</f>
         <v>43891</v>
       </c>
       <c r="B400">
-        <v>49.313410649898287</v>
+        <v>6.8269539082398527</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="3">
+      <c r="A401" s="2">
         <f>DATE(2020,4,1)</f>
         <v>43922</v>
       </c>
       <c r="B401">
-        <v>7.9009578127746209</v>
+        <v>9.0551338386857623</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="3">
+      <c r="A402" s="2">
         <f>DATE(2020,5,1)</f>
         <v>43952</v>
       </c>
       <c r="B402">
-        <v>59.062755545599757</v>
+        <v>8.7141644379205374</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="3">
+      <c r="A403" s="2">
         <f>DATE(2020,6,1)</f>
         <v>43983</v>
       </c>
       <c r="B403">
-        <v>44.774989130399277</v>
+        <v>11.21337399245296</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="3">
+      <c r="A404" s="2">
         <f>DATE(2020,7,1)</f>
         <v>44013</v>
       </c>
       <c r="B404">
-        <v>28.729436865002938</v>
+        <v>16.113700672630031</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="3">
+      <c r="A405" s="2">
         <f>DATE(2020,8,1)</f>
         <v>44044</v>
       </c>
       <c r="B405">
-        <v>61.339202174503853</v>
+        <v>21.522042448723219</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="3">
+      <c r="A406" s="2">
         <f>DATE(2020,9,1)</f>
         <v>44075</v>
       </c>
       <c r="B406">
-        <v>39.371898599803259</v>
+        <v>12.68692266295594</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="3">
+      <c r="A407" s="2">
         <f>DATE(2020,10,1)</f>
         <v>44105</v>
       </c>
       <c r="B407">
-        <v>29.662134103391981</v>
+        <v>3.983051067937414</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="3">
+      <c r="A408" s="2">
         <f>DATE(2020,11,1)</f>
         <v>44136</v>
       </c>
       <c r="B408">
-        <v>43.983507320489267</v>
+        <v>-6.2902499218353922</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="3">
+      <c r="A409" s="2">
         <f>DATE(2020,12,1)</f>
         <v>44166</v>
       </c>
       <c r="B409">
-        <v>8.5536112487430529</v>
+        <v>-8.4111508756340925</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="3">
+      <c r="A410" s="2">
         <f>DATE(2021,1,1)</f>
         <v>44197</v>
       </c>
       <c r="B410">
-        <v>32.122778700635209</v>
+        <v>-11.639109563262441</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="3">
+      <c r="A411" s="2">
         <f>DATE(2021,2,1)</f>
         <v>44228</v>
       </c>
       <c r="B411">
-        <v>54.560245130749777</v>
+        <v>-16.906838635576111</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="3">
+      <c r="A412" s="2">
         <f>DATE(2021,3,1)</f>
         <v>44256</v>
       </c>
       <c r="B412">
-        <v>32.700027093994557</v>
+        <v>-20.349432040660801</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="3">
+      <c r="A413" s="2">
         <f>DATE(2021,4,1)</f>
         <v>44287</v>
       </c>
       <c r="B413">
-        <v>-69.454463929477086</v>
+        <v>-18.363712618854631</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="3">
+      <c r="A414" s="2">
         <f>DATE(2021,5,1)</f>
         <v>44317</v>
       </c>
       <c r="B414">
-        <v>-45.070268971416937</v>
+        <v>-13.59356734968906</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="3">
+      <c r="A415" s="2">
         <f>DATE(2021,6,1)</f>
         <v>44348</v>
       </c>
       <c r="B415">
-        <v>-23.336057278436162</v>
+        <v>-8.3500728961991371</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="3">
+      <c r="A416" s="2">
         <f>DATE(2021,7,1)</f>
         <v>44378</v>
       </c>
       <c r="B416">
-        <v>10.64160018773487</v>
+        <v>-3.703586901072677</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="3">
+      <c r="A417" s="2">
         <f>DATE(2021,8,1)</f>
         <v>44409</v>
       </c>
       <c r="B417">
-        <v>2.9199618942946022</v>
+        <v>1.189530959653549</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="3">
+      <c r="A418" s="2">
         <f>DATE(2021,9,1)</f>
         <v>44440</v>
       </c>
       <c r="B418">
-        <v>1.591667925280376</v>
+        <v>6.3000803208106291</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="3">
+      <c r="A419" s="2">
         <f>DATE(2021,10,1)</f>
         <v>44470</v>
       </c>
       <c r="B419">
-        <v>-4.5143965660606113</v>
+        <v>11.39439166632611</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="3">
+      <c r="A420" s="2">
         <f>DATE(2021,11,1)</f>
         <v>44501</v>
       </c>
       <c r="B420">
-        <v>11.839940497170231</v>
+        <v>17.084001806731411</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="3"/>
+      <c r="A421" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/residual_arima.xlsx
+++ b/residual_arima.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/Coding TA/Uji Coba TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_7DB1F3B0D340D17AD7382911595ED87656CD66CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{687555C4-084D-47F0-8CE4-5BDE28163F78}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_7DB1F3B0D3F0DA740F3A3B11595ED87656CD66CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5066891F-F0F5-47BE-9A2E-661BE4E903F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,14 +44,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,6 +83,9 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -100,7 +95,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,25 +399,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B397" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <f>DATE(1987,1,1)</f>
         <v>31778</v>
       </c>
@@ -432,7 +426,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <f>DATE(1987,2,1)</f>
         <v>31809</v>
       </c>
@@ -441,7 +435,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <f>DATE(1987,3,1)</f>
         <v>31837</v>
       </c>
@@ -450,7 +444,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <f>DATE(1987,4,1)</f>
         <v>31868</v>
       </c>
@@ -459,7 +453,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <f>DATE(1987,5,1)</f>
         <v>31898</v>
       </c>
@@ -468,7 +462,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <f>DATE(1987,6,1)</f>
         <v>31929</v>
       </c>
@@ -477,7 +471,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <f>DATE(1987,7,1)</f>
         <v>31959</v>
       </c>
@@ -486,7 +480,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <f>DATE(1987,8,1)</f>
         <v>31990</v>
       </c>
@@ -495,7 +489,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <f>DATE(1987,9,1)</f>
         <v>32021</v>
       </c>
@@ -504,7 +498,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <f>DATE(1987,10,1)</f>
         <v>32051</v>
       </c>
@@ -513,7 +507,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <f>DATE(1987,11,1)</f>
         <v>32082</v>
       </c>
@@ -522,7 +516,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <f>DATE(1987,12,1)</f>
         <v>32112</v>
       </c>
@@ -531,7 +525,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <f>DATE(1988,1,1)</f>
         <v>32143</v>
       </c>
@@ -540,7 +534,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <f>DATE(1988,2,1)</f>
         <v>32174</v>
       </c>
@@ -549,7 +543,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <f>DATE(1988,3,1)</f>
         <v>32203</v>
       </c>
@@ -558,7 +552,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <f>DATE(1988,4,1)</f>
         <v>32234</v>
       </c>
@@ -567,7 +561,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <f>DATE(1988,5,1)</f>
         <v>32264</v>
       </c>
@@ -576,7 +570,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <f>DATE(1988,6,1)</f>
         <v>32295</v>
       </c>
@@ -585,7 +579,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <f>DATE(1988,7,1)</f>
         <v>32325</v>
       </c>
@@ -594,7 +588,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <f>DATE(1988,8,1)</f>
         <v>32356</v>
       </c>
@@ -603,7 +597,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <f>DATE(1988,9,1)</f>
         <v>32387</v>
       </c>
@@ -612,7 +606,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <f>DATE(1988,10,1)</f>
         <v>32417</v>
       </c>
@@ -621,7 +615,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <f>DATE(1988,11,1)</f>
         <v>32448</v>
       </c>
@@ -630,7 +624,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <f>DATE(1988,12,1)</f>
         <v>32478</v>
       </c>
@@ -639,7 +633,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <f>DATE(1989,1,1)</f>
         <v>32509</v>
       </c>
@@ -648,7 +642,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <f>DATE(1989,2,1)</f>
         <v>32540</v>
       </c>
@@ -657,7 +651,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <f>DATE(1989,3,1)</f>
         <v>32568</v>
       </c>
@@ -666,7 +660,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <f>DATE(1989,4,1)</f>
         <v>32599</v>
       </c>
@@ -675,7 +669,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <f>DATE(1989,5,1)</f>
         <v>32629</v>
       </c>
@@ -684,7 +678,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <f>DATE(1989,6,1)</f>
         <v>32660</v>
       </c>
@@ -693,7 +687,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <f>DATE(1989,7,1)</f>
         <v>32690</v>
       </c>
@@ -702,7 +696,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <f>DATE(1989,8,1)</f>
         <v>32721</v>
       </c>
@@ -711,7 +705,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <f>DATE(1989,9,1)</f>
         <v>32752</v>
       </c>
@@ -720,7 +714,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <f>DATE(1989,10,1)</f>
         <v>32782</v>
       </c>
@@ -729,7 +723,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <f>DATE(1989,11,1)</f>
         <v>32813</v>
       </c>
@@ -738,7 +732,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <f>DATE(1989,12,1)</f>
         <v>32843</v>
       </c>
@@ -747,7 +741,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <f>DATE(1990,1,1)</f>
         <v>32874</v>
       </c>
@@ -756,7 +750,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <f>DATE(1990,2,1)</f>
         <v>32905</v>
       </c>
@@ -765,7 +759,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <f>DATE(1990,3,1)</f>
         <v>32933</v>
       </c>
@@ -774,7 +768,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <f>DATE(1990,4,1)</f>
         <v>32964</v>
       </c>
@@ -783,7 +777,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <f>DATE(1990,5,1)</f>
         <v>32994</v>
       </c>
@@ -792,7 +786,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <f>DATE(1990,6,1)</f>
         <v>33025</v>
       </c>
@@ -801,7 +795,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <f>DATE(1990,7,1)</f>
         <v>33055</v>
       </c>
@@ -810,7 +804,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <f>DATE(1990,8,1)</f>
         <v>33086</v>
       </c>
@@ -819,7 +813,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <f>DATE(1990,9,1)</f>
         <v>33117</v>
       </c>
@@ -828,7 +822,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <f>DATE(1990,10,1)</f>
         <v>33147</v>
       </c>
@@ -837,7 +831,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <f>DATE(1990,11,1)</f>
         <v>33178</v>
       </c>
@@ -846,7 +840,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <f>DATE(1990,12,1)</f>
         <v>33208</v>
       </c>
@@ -855,7 +849,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <f>DATE(1991,1,1)</f>
         <v>33239</v>
       </c>
@@ -864,7 +858,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <f>DATE(1991,2,1)</f>
         <v>33270</v>
       </c>
@@ -873,7 +867,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <f>DATE(1991,3,1)</f>
         <v>33298</v>
       </c>
@@ -882,7 +876,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <f>DATE(1991,4,1)</f>
         <v>33329</v>
       </c>
@@ -891,7 +885,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <f>DATE(1991,5,1)</f>
         <v>33359</v>
       </c>
@@ -900,7 +894,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <f>DATE(1991,6,1)</f>
         <v>33390</v>
       </c>
@@ -909,7 +903,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <f>DATE(1991,7,1)</f>
         <v>33420</v>
       </c>
@@ -918,7 +912,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <f>DATE(1991,8,1)</f>
         <v>33451</v>
       </c>
@@ -927,7 +921,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <f>DATE(1991,9,1)</f>
         <v>33482</v>
       </c>
@@ -936,7 +930,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <f>DATE(1991,10,1)</f>
         <v>33512</v>
       </c>
@@ -945,7 +939,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <f>DATE(1991,11,1)</f>
         <v>33543</v>
       </c>
@@ -954,7 +948,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <f>DATE(1991,12,1)</f>
         <v>33573</v>
       </c>
@@ -963,7 +957,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <f>DATE(1992,1,1)</f>
         <v>33604</v>
       </c>
@@ -972,7 +966,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <f>DATE(1992,2,1)</f>
         <v>33635</v>
       </c>
@@ -981,7 +975,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <f>DATE(1992,3,1)</f>
         <v>33664</v>
       </c>
@@ -990,7 +984,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <f>DATE(1992,4,1)</f>
         <v>33695</v>
       </c>
@@ -999,7 +993,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <f>DATE(1992,5,1)</f>
         <v>33725</v>
       </c>
@@ -1008,7 +1002,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <f>DATE(1992,6,1)</f>
         <v>33756</v>
       </c>
@@ -1017,7 +1011,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <f>DATE(1992,7,1)</f>
         <v>33786</v>
       </c>
@@ -1026,7 +1020,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <f>DATE(1992,8,1)</f>
         <v>33817</v>
       </c>
@@ -1035,7 +1029,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <f>DATE(1992,9,1)</f>
         <v>33848</v>
       </c>
@@ -1044,7 +1038,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <f>DATE(1992,10,1)</f>
         <v>33878</v>
       </c>
@@ -1053,7 +1047,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <f>DATE(1992,11,1)</f>
         <v>33909</v>
       </c>
@@ -1062,7 +1056,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <f>DATE(1992,12,1)</f>
         <v>33939</v>
       </c>
@@ -1071,7 +1065,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <f>DATE(1993,1,1)</f>
         <v>33970</v>
       </c>
@@ -1080,7 +1074,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <f>DATE(1993,2,1)</f>
         <v>34001</v>
       </c>
@@ -1089,7 +1083,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <f>DATE(1993,3,1)</f>
         <v>34029</v>
       </c>
@@ -1098,7 +1092,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <f>DATE(1993,4,1)</f>
         <v>34060</v>
       </c>
@@ -1107,7 +1101,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <f>DATE(1993,5,1)</f>
         <v>34090</v>
       </c>
@@ -1116,7 +1110,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <f>DATE(1993,6,1)</f>
         <v>34121</v>
       </c>
@@ -1125,7 +1119,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <f>DATE(1993,7,1)</f>
         <v>34151</v>
       </c>
@@ -1134,7 +1128,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <f>DATE(1993,8,1)</f>
         <v>34182</v>
       </c>
@@ -1143,7 +1137,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <f>DATE(1993,9,1)</f>
         <v>34213</v>
       </c>
@@ -1152,7 +1146,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <f>DATE(1993,10,1)</f>
         <v>34243</v>
       </c>
@@ -1161,7 +1155,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <f>DATE(1993,11,1)</f>
         <v>34274</v>
       </c>
@@ -1170,7 +1164,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <f>DATE(1993,12,1)</f>
         <v>34304</v>
       </c>
@@ -1179,7 +1173,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <f>DATE(1994,1,1)</f>
         <v>34335</v>
       </c>
@@ -1188,7 +1182,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <f>DATE(1994,2,1)</f>
         <v>34366</v>
       </c>
@@ -1197,7 +1191,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <f>DATE(1994,3,1)</f>
         <v>34394</v>
       </c>
@@ -1206,7 +1200,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <f>DATE(1994,4,1)</f>
         <v>34425</v>
       </c>
@@ -1215,7 +1209,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <f>DATE(1994,5,1)</f>
         <v>34455</v>
       </c>
@@ -1224,7 +1218,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <f>DATE(1994,6,1)</f>
         <v>34486</v>
       </c>
@@ -1233,7 +1227,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <f>DATE(1994,7,1)</f>
         <v>34516</v>
       </c>
@@ -1242,7 +1236,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <f>DATE(1994,8,1)</f>
         <v>34547</v>
       </c>
@@ -1251,7 +1245,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <f>DATE(1994,9,1)</f>
         <v>34578</v>
       </c>
@@ -1260,7 +1254,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <f>DATE(1994,10,1)</f>
         <v>34608</v>
       </c>
@@ -1269,7 +1263,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <f>DATE(1994,11,1)</f>
         <v>34639</v>
       </c>
@@ -1278,7 +1272,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <f>DATE(1994,12,1)</f>
         <v>34669</v>
       </c>
@@ -1287,7 +1281,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <f>DATE(1995,1,1)</f>
         <v>34700</v>
       </c>
@@ -1296,7 +1290,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <f>DATE(1995,2,1)</f>
         <v>34731</v>
       </c>
@@ -1305,7 +1299,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <f>DATE(1995,3,1)</f>
         <v>34759</v>
       </c>
@@ -1314,7 +1308,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <f>DATE(1995,4,1)</f>
         <v>34790</v>
       </c>
@@ -1323,7 +1317,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <f>DATE(1995,5,1)</f>
         <v>34820</v>
       </c>
@@ -1332,7 +1326,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <f>DATE(1995,6,1)</f>
         <v>34851</v>
       </c>
@@ -1341,7 +1335,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <f>DATE(1995,7,1)</f>
         <v>34881</v>
       </c>
@@ -1350,7 +1344,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <f>DATE(1995,8,1)</f>
         <v>34912</v>
       </c>
@@ -1359,7 +1353,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <f>DATE(1995,9,1)</f>
         <v>34943</v>
       </c>
@@ -1368,7 +1362,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <f>DATE(1995,10,1)</f>
         <v>34973</v>
       </c>
@@ -1377,7 +1371,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <f>DATE(1995,11,1)</f>
         <v>35004</v>
       </c>
@@ -1386,7 +1380,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <f>DATE(1995,12,1)</f>
         <v>35034</v>
       </c>
@@ -1395,7 +1389,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <f>DATE(1996,1,1)</f>
         <v>35065</v>
       </c>
@@ -1404,7 +1398,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <f>DATE(1996,2,1)</f>
         <v>35096</v>
       </c>
@@ -1413,7 +1407,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <f>DATE(1996,3,1)</f>
         <v>35125</v>
       </c>
@@ -1422,7 +1416,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <f>DATE(1996,4,1)</f>
         <v>35156</v>
       </c>
@@ -1431,7 +1425,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <f>DATE(1996,5,1)</f>
         <v>35186</v>
       </c>
@@ -1440,7 +1434,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <f>DATE(1996,6,1)</f>
         <v>35217</v>
       </c>
@@ -1449,7 +1443,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <f>DATE(1996,7,1)</f>
         <v>35247</v>
       </c>
@@ -1458,7 +1452,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <f>DATE(1996,8,1)</f>
         <v>35278</v>
       </c>
@@ -1467,7 +1461,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <f>DATE(1996,9,1)</f>
         <v>35309</v>
       </c>
@@ -1476,7 +1470,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <f>DATE(1996,10,1)</f>
         <v>35339</v>
       </c>
@@ -1485,7 +1479,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <f>DATE(1996,11,1)</f>
         <v>35370</v>
       </c>
@@ -1494,7 +1488,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <f>DATE(1996,12,1)</f>
         <v>35400</v>
       </c>
@@ -1503,7 +1497,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <f>DATE(1997,1,1)</f>
         <v>35431</v>
       </c>
@@ -1512,7 +1506,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <f>DATE(1997,2,1)</f>
         <v>35462</v>
       </c>
@@ -1521,7 +1515,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <f>DATE(1997,3,1)</f>
         <v>35490</v>
       </c>
@@ -1530,7 +1524,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <f>DATE(1997,4,1)</f>
         <v>35521</v>
       </c>
@@ -1539,7 +1533,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <f>DATE(1997,5,1)</f>
         <v>35551</v>
       </c>
@@ -1548,7 +1542,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <f>DATE(1997,6,1)</f>
         <v>35582</v>
       </c>
@@ -1557,7 +1551,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <f>DATE(1997,7,1)</f>
         <v>35612</v>
       </c>
@@ -1566,7 +1560,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <f>DATE(1997,8,1)</f>
         <v>35643</v>
       </c>
@@ -1575,7 +1569,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <f>DATE(1997,9,1)</f>
         <v>35674</v>
       </c>
@@ -1584,7 +1578,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <f>DATE(1997,10,1)</f>
         <v>35704</v>
       </c>
@@ -1593,7 +1587,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <f>DATE(1997,11,1)</f>
         <v>35735</v>
       </c>
@@ -1602,7 +1596,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <f>DATE(1997,12,1)</f>
         <v>35765</v>
       </c>
@@ -1611,7 +1605,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <f>DATE(1998,1,1)</f>
         <v>35796</v>
       </c>
@@ -1620,7 +1614,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <f>DATE(1998,2,1)</f>
         <v>35827</v>
       </c>
@@ -1629,7 +1623,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <f>DATE(1998,3,1)</f>
         <v>35855</v>
       </c>
@@ -1638,7 +1632,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <f>DATE(1998,4,1)</f>
         <v>35886</v>
       </c>
@@ -1647,7 +1641,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <f>DATE(1998,5,1)</f>
         <v>35916</v>
       </c>
@@ -1656,7 +1650,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <f>DATE(1998,6,1)</f>
         <v>35947</v>
       </c>
@@ -1665,7 +1659,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <f>DATE(1998,7,1)</f>
         <v>35977</v>
       </c>
@@ -1674,7 +1668,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <f>DATE(1998,8,1)</f>
         <v>36008</v>
       </c>
@@ -1683,7 +1677,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <f>DATE(1998,9,1)</f>
         <v>36039</v>
       </c>
@@ -1692,7 +1686,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <f>DATE(1998,10,1)</f>
         <v>36069</v>
       </c>
@@ -1701,7 +1695,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <f>DATE(1998,11,1)</f>
         <v>36100</v>
       </c>
@@ -1710,7 +1704,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <f>DATE(1998,12,1)</f>
         <v>36130</v>
       </c>
@@ -1719,7 +1713,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <f>DATE(1999,1,1)</f>
         <v>36161</v>
       </c>
@@ -1728,7 +1722,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <f>DATE(1999,2,1)</f>
         <v>36192</v>
       </c>
@@ -1737,7 +1731,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <f>DATE(1999,3,1)</f>
         <v>36220</v>
       </c>
@@ -1746,7 +1740,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <f>DATE(1999,4,1)</f>
         <v>36251</v>
       </c>
@@ -1755,7 +1749,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <f>DATE(1999,5,1)</f>
         <v>36281</v>
       </c>
@@ -1764,7 +1758,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <f>DATE(1999,6,1)</f>
         <v>36312</v>
       </c>
@@ -1773,7 +1767,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <f>DATE(1999,7,1)</f>
         <v>36342</v>
       </c>
@@ -1782,7 +1776,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <f>DATE(1999,8,1)</f>
         <v>36373</v>
       </c>
@@ -1791,7 +1785,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <f>DATE(1999,9,1)</f>
         <v>36404</v>
       </c>
@@ -1800,7 +1794,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <f>DATE(1999,10,1)</f>
         <v>36434</v>
       </c>
@@ -1809,7 +1803,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+      <c r="A156" s="3">
         <f>DATE(1999,11,1)</f>
         <v>36465</v>
       </c>
@@ -1818,7 +1812,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+      <c r="A157" s="3">
         <f>DATE(1999,12,1)</f>
         <v>36495</v>
       </c>
@@ -1827,7 +1821,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <f>DATE(2000,1,1)</f>
         <v>36526</v>
       </c>
@@ -1836,7 +1830,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <f>DATE(2000,2,1)</f>
         <v>36557</v>
       </c>
@@ -1845,7 +1839,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <f>DATE(2000,3,1)</f>
         <v>36586</v>
       </c>
@@ -1854,7 +1848,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+      <c r="A161" s="3">
         <f>DATE(2000,4,1)</f>
         <v>36617</v>
       </c>
@@ -1863,7 +1857,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <f>DATE(2000,5,1)</f>
         <v>36647</v>
       </c>
@@ -1872,7 +1866,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+      <c r="A163" s="3">
         <f>DATE(2000,6,1)</f>
         <v>36678</v>
       </c>
@@ -1881,7 +1875,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+      <c r="A164" s="3">
         <f>DATE(2000,7,1)</f>
         <v>36708</v>
       </c>
@@ -1890,7 +1884,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+      <c r="A165" s="3">
         <f>DATE(2000,8,1)</f>
         <v>36739</v>
       </c>
@@ -1899,7 +1893,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+      <c r="A166" s="3">
         <f>DATE(2000,9,1)</f>
         <v>36770</v>
       </c>
@@ -1908,7 +1902,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+      <c r="A167" s="3">
         <f>DATE(2000,10,1)</f>
         <v>36800</v>
       </c>
@@ -1917,7 +1911,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+      <c r="A168" s="3">
         <f>DATE(2000,11,1)</f>
         <v>36831</v>
       </c>
@@ -1926,7 +1920,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+      <c r="A169" s="3">
         <f>DATE(2000,12,1)</f>
         <v>36861</v>
       </c>
@@ -1935,7 +1929,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+      <c r="A170" s="3">
         <f>DATE(2001,1,1)</f>
         <v>36892</v>
       </c>
@@ -1944,7 +1938,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+      <c r="A171" s="3">
         <f>DATE(2001,2,1)</f>
         <v>36923</v>
       </c>
@@ -1953,7 +1947,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+      <c r="A172" s="3">
         <f>DATE(2001,3,1)</f>
         <v>36951</v>
       </c>
@@ -1962,7 +1956,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+      <c r="A173" s="3">
         <f>DATE(2001,4,1)</f>
         <v>36982</v>
       </c>
@@ -1971,7 +1965,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+      <c r="A174" s="3">
         <f>DATE(2001,5,1)</f>
         <v>37012</v>
       </c>
@@ -1980,7 +1974,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+      <c r="A175" s="3">
         <f>DATE(2001,6,1)</f>
         <v>37043</v>
       </c>
@@ -1989,7 +1983,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+      <c r="A176" s="3">
         <f>DATE(2001,7,1)</f>
         <v>37073</v>
       </c>
@@ -1998,7 +1992,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+      <c r="A177" s="3">
         <f>DATE(2001,8,1)</f>
         <v>37104</v>
       </c>
@@ -2007,7 +2001,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+      <c r="A178" s="3">
         <f>DATE(2001,9,1)</f>
         <v>37135</v>
       </c>
@@ -2016,7 +2010,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+      <c r="A179" s="3">
         <f>DATE(2001,10,1)</f>
         <v>37165</v>
       </c>
@@ -2025,7 +2019,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+      <c r="A180" s="3">
         <f>DATE(2001,11,1)</f>
         <v>37196</v>
       </c>
@@ -2034,7 +2028,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+      <c r="A181" s="3">
         <f>DATE(2001,12,1)</f>
         <v>37226</v>
       </c>
@@ -2043,7 +2037,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+      <c r="A182" s="3">
         <f>DATE(2002,1,1)</f>
         <v>37257</v>
       </c>
@@ -2052,7 +2046,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+      <c r="A183" s="3">
         <f>DATE(2002,2,1)</f>
         <v>37288</v>
       </c>
@@ -2061,7 +2055,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+      <c r="A184" s="3">
         <f>DATE(2002,3,1)</f>
         <v>37316</v>
       </c>
@@ -2070,7 +2064,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+      <c r="A185" s="3">
         <f>DATE(2002,4,1)</f>
         <v>37347</v>
       </c>
@@ -2079,7 +2073,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+      <c r="A186" s="3">
         <f>DATE(2002,5,1)</f>
         <v>37377</v>
       </c>
@@ -2088,7 +2082,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+      <c r="A187" s="3">
         <f>DATE(2002,6,1)</f>
         <v>37408</v>
       </c>
@@ -2097,7 +2091,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+      <c r="A188" s="3">
         <f>DATE(2002,7,1)</f>
         <v>37438</v>
       </c>
@@ -2106,7 +2100,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+      <c r="A189" s="3">
         <f>DATE(2002,8,1)</f>
         <v>37469</v>
       </c>
@@ -2115,7 +2109,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+      <c r="A190" s="3">
         <f>DATE(2002,9,1)</f>
         <v>37500</v>
       </c>
@@ -2124,7 +2118,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+      <c r="A191" s="3">
         <f>DATE(2002,10,1)</f>
         <v>37530</v>
       </c>
@@ -2133,7 +2127,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+      <c r="A192" s="3">
         <f>DATE(2002,11,1)</f>
         <v>37561</v>
       </c>
@@ -2142,7 +2136,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+      <c r="A193" s="3">
         <f>DATE(2002,12,1)</f>
         <v>37591</v>
       </c>
@@ -2151,7 +2145,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+      <c r="A194" s="3">
         <f>DATE(2003,1,1)</f>
         <v>37622</v>
       </c>
@@ -2160,7 +2154,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+      <c r="A195" s="3">
         <f>DATE(2003,2,1)</f>
         <v>37653</v>
       </c>
@@ -2169,7 +2163,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+      <c r="A196" s="3">
         <f>DATE(2003,3,1)</f>
         <v>37681</v>
       </c>
@@ -2178,7 +2172,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+      <c r="A197" s="3">
         <f>DATE(2003,4,1)</f>
         <v>37712</v>
       </c>
@@ -2187,7 +2181,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+      <c r="A198" s="3">
         <f>DATE(2003,5,1)</f>
         <v>37742</v>
       </c>
@@ -2196,7 +2190,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+      <c r="A199" s="3">
         <f>DATE(2003,6,1)</f>
         <v>37773</v>
       </c>
@@ -2205,7 +2199,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+      <c r="A200" s="3">
         <f>DATE(2003,7,1)</f>
         <v>37803</v>
       </c>
@@ -2214,7 +2208,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+      <c r="A201" s="3">
         <f>DATE(2003,8,1)</f>
         <v>37834</v>
       </c>
@@ -2223,7 +2217,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+      <c r="A202" s="3">
         <f>DATE(2003,9,1)</f>
         <v>37865</v>
       </c>
@@ -2232,7 +2226,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+      <c r="A203" s="3">
         <f>DATE(2003,10,1)</f>
         <v>37895</v>
       </c>
@@ -2241,7 +2235,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+      <c r="A204" s="3">
         <f>DATE(2003,11,1)</f>
         <v>37926</v>
       </c>
@@ -2250,7 +2244,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+      <c r="A205" s="3">
         <f>DATE(2003,12,1)</f>
         <v>37956</v>
       </c>
@@ -2259,7 +2253,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="A206" s="3">
         <f>DATE(2004,1,1)</f>
         <v>37987</v>
       </c>
@@ -2268,7 +2262,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+      <c r="A207" s="3">
         <f>DATE(2004,2,1)</f>
         <v>38018</v>
       </c>
@@ -2277,7 +2271,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+      <c r="A208" s="3">
         <f>DATE(2004,3,1)</f>
         <v>38047</v>
       </c>
@@ -2286,7 +2280,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+      <c r="A209" s="3">
         <f>DATE(2004,4,1)</f>
         <v>38078</v>
       </c>
@@ -2295,7 +2289,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+      <c r="A210" s="3">
         <f>DATE(2004,5,1)</f>
         <v>38108</v>
       </c>
@@ -2304,7 +2298,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+      <c r="A211" s="3">
         <f>DATE(2004,6,1)</f>
         <v>38139</v>
       </c>
@@ -2313,7 +2307,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+      <c r="A212" s="3">
         <f>DATE(2004,7,1)</f>
         <v>38169</v>
       </c>
@@ -2322,7 +2316,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+      <c r="A213" s="3">
         <f>DATE(2004,8,1)</f>
         <v>38200</v>
       </c>
@@ -2331,7 +2325,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+      <c r="A214" s="3">
         <f>DATE(2004,9,1)</f>
         <v>38231</v>
       </c>
@@ -2340,7 +2334,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+      <c r="A215" s="3">
         <f>DATE(2004,10,1)</f>
         <v>38261</v>
       </c>
@@ -2349,7 +2343,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+      <c r="A216" s="3">
         <f>DATE(2004,11,1)</f>
         <v>38292</v>
       </c>
@@ -2358,7 +2352,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+      <c r="A217" s="3">
         <f>DATE(2004,12,1)</f>
         <v>38322</v>
       </c>
@@ -2367,7 +2361,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+      <c r="A218" s="3">
         <f>DATE(2005,1,1)</f>
         <v>38353</v>
       </c>
@@ -2376,7 +2370,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+      <c r="A219" s="3">
         <f>DATE(2005,2,1)</f>
         <v>38384</v>
       </c>
@@ -2385,7 +2379,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+      <c r="A220" s="3">
         <f>DATE(2005,3,1)</f>
         <v>38412</v>
       </c>
@@ -2394,7 +2388,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+      <c r="A221" s="3">
         <f>DATE(2005,4,1)</f>
         <v>38443</v>
       </c>
@@ -2403,7 +2397,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+      <c r="A222" s="3">
         <f>DATE(2005,5,1)</f>
         <v>38473</v>
       </c>
@@ -2412,7 +2406,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+      <c r="A223" s="3">
         <f>DATE(2005,6,1)</f>
         <v>38504</v>
       </c>
@@ -2421,7 +2415,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+      <c r="A224" s="3">
         <f>DATE(2005,7,1)</f>
         <v>38534</v>
       </c>
@@ -2430,7 +2424,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+      <c r="A225" s="3">
         <f>DATE(2005,8,1)</f>
         <v>38565</v>
       </c>
@@ -2439,7 +2433,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+      <c r="A226" s="3">
         <f>DATE(2005,9,1)</f>
         <v>38596</v>
       </c>
@@ -2448,7 +2442,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+      <c r="A227" s="3">
         <f>DATE(2005,10,1)</f>
         <v>38626</v>
       </c>
@@ -2457,7 +2451,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+      <c r="A228" s="3">
         <f>DATE(2005,11,1)</f>
         <v>38657</v>
       </c>
@@ -2466,7 +2460,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+      <c r="A229" s="3">
         <f>DATE(2005,12,1)</f>
         <v>38687</v>
       </c>
@@ -2475,7 +2469,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+      <c r="A230" s="3">
         <f>DATE(2006,1,1)</f>
         <v>38718</v>
       </c>
@@ -2484,7 +2478,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+      <c r="A231" s="3">
         <f>DATE(2006,2,1)</f>
         <v>38749</v>
       </c>
@@ -2493,7 +2487,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+      <c r="A232" s="3">
         <f>DATE(2006,3,1)</f>
         <v>38777</v>
       </c>
@@ -2502,7 +2496,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+      <c r="A233" s="3">
         <f>DATE(2006,4,1)</f>
         <v>38808</v>
       </c>
@@ -2511,7 +2505,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+      <c r="A234" s="3">
         <f>DATE(2006,5,1)</f>
         <v>38838</v>
       </c>
@@ -2520,7 +2514,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+      <c r="A235" s="3">
         <f>DATE(2006,6,1)</f>
         <v>38869</v>
       </c>
@@ -2529,7 +2523,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
+      <c r="A236" s="3">
         <f>DATE(2006,7,1)</f>
         <v>38899</v>
       </c>
@@ -2538,7 +2532,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+      <c r="A237" s="3">
         <f>DATE(2006,8,1)</f>
         <v>38930</v>
       </c>
@@ -2547,7 +2541,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+      <c r="A238" s="3">
         <f>DATE(2006,9,1)</f>
         <v>38961</v>
       </c>
@@ -2556,7 +2550,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+      <c r="A239" s="3">
         <f>DATE(2006,10,1)</f>
         <v>38991</v>
       </c>
@@ -2565,7 +2559,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+      <c r="A240" s="3">
         <f>DATE(2006,11,1)</f>
         <v>39022</v>
       </c>
@@ -2574,7 +2568,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
+      <c r="A241" s="3">
         <f>DATE(2006,12,1)</f>
         <v>39052</v>
       </c>
@@ -2583,7 +2577,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+      <c r="A242" s="3">
         <f>DATE(2007,1,1)</f>
         <v>39083</v>
       </c>
@@ -2592,7 +2586,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+      <c r="A243" s="3">
         <f>DATE(2007,2,1)</f>
         <v>39114</v>
       </c>
@@ -2601,7 +2595,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+      <c r="A244" s="3">
         <f>DATE(2007,3,1)</f>
         <v>39142</v>
       </c>
@@ -2610,7 +2604,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+      <c r="A245" s="3">
         <f>DATE(2007,4,1)</f>
         <v>39173</v>
       </c>
@@ -2619,7 +2613,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+      <c r="A246" s="3">
         <f>DATE(2007,5,1)</f>
         <v>39203</v>
       </c>
@@ -2628,7 +2622,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+      <c r="A247" s="3">
         <f>DATE(2007,6,1)</f>
         <v>39234</v>
       </c>
@@ -2637,7 +2631,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+      <c r="A248" s="3">
         <f>DATE(2007,7,1)</f>
         <v>39264</v>
       </c>
@@ -2646,7 +2640,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+      <c r="A249" s="3">
         <f>DATE(2007,8,1)</f>
         <v>39295</v>
       </c>
@@ -2655,7 +2649,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+      <c r="A250" s="3">
         <f>DATE(2007,9,1)</f>
         <v>39326</v>
       </c>
@@ -2664,7 +2658,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+      <c r="A251" s="3">
         <f>DATE(2007,10,1)</f>
         <v>39356</v>
       </c>
@@ -2673,7 +2667,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+      <c r="A252" s="3">
         <f>DATE(2007,11,1)</f>
         <v>39387</v>
       </c>
@@ -2682,7 +2676,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
+      <c r="A253" s="3">
         <f>DATE(2007,12,1)</f>
         <v>39417</v>
       </c>
@@ -2691,7 +2685,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+      <c r="A254" s="3">
         <f>DATE(2008,1,1)</f>
         <v>39448</v>
       </c>
@@ -2700,7 +2694,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+      <c r="A255" s="3">
         <f>DATE(2008,2,1)</f>
         <v>39479</v>
       </c>
@@ -2709,7 +2703,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+      <c r="A256" s="3">
         <f>DATE(2008,3,1)</f>
         <v>39508</v>
       </c>
@@ -2718,7 +2712,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+      <c r="A257" s="3">
         <f>DATE(2008,4,1)</f>
         <v>39539</v>
       </c>
@@ -2727,7 +2721,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+      <c r="A258" s="3">
         <f>DATE(2008,5,1)</f>
         <v>39569</v>
       </c>
@@ -2736,7 +2730,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+      <c r="A259" s="3">
         <f>DATE(2008,6,1)</f>
         <v>39600</v>
       </c>
@@ -2745,7 +2739,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+      <c r="A260" s="3">
         <f>DATE(2008,7,1)</f>
         <v>39630</v>
       </c>
@@ -2754,7 +2748,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+      <c r="A261" s="3">
         <f>DATE(2008,8,1)</f>
         <v>39661</v>
       </c>
@@ -2763,7 +2757,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+      <c r="A262" s="3">
         <f>DATE(2008,9,1)</f>
         <v>39692</v>
       </c>
@@ -2772,7 +2766,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+      <c r="A263" s="3">
         <f>DATE(2008,10,1)</f>
         <v>39722</v>
       </c>
@@ -2781,7 +2775,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+      <c r="A264" s="3">
         <f>DATE(2008,11,1)</f>
         <v>39753</v>
       </c>
@@ -2790,7 +2784,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+      <c r="A265" s="3">
         <f>DATE(2008,12,1)</f>
         <v>39783</v>
       </c>
@@ -2799,7 +2793,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+      <c r="A266" s="3">
         <f>DATE(2009,1,1)</f>
         <v>39814</v>
       </c>
@@ -2808,7 +2802,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+      <c r="A267" s="3">
         <f>DATE(2009,2,1)</f>
         <v>39845</v>
       </c>
@@ -2817,7 +2811,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+      <c r="A268" s="3">
         <f>DATE(2009,3,1)</f>
         <v>39873</v>
       </c>
@@ -2826,7 +2820,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+      <c r="A269" s="3">
         <f>DATE(2009,4,1)</f>
         <v>39904</v>
       </c>
@@ -2835,7 +2829,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+      <c r="A270" s="3">
         <f>DATE(2009,5,1)</f>
         <v>39934</v>
       </c>
@@ -2844,7 +2838,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+      <c r="A271" s="3">
         <f>DATE(2009,6,1)</f>
         <v>39965</v>
       </c>
@@ -2853,7 +2847,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+      <c r="A272" s="3">
         <f>DATE(2009,7,1)</f>
         <v>39995</v>
       </c>
@@ -2862,7 +2856,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
+      <c r="A273" s="3">
         <f>DATE(2009,8,1)</f>
         <v>40026</v>
       </c>
@@ -2871,7 +2865,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+      <c r="A274" s="3">
         <f>DATE(2009,9,1)</f>
         <v>40057</v>
       </c>
@@ -2880,7 +2874,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+      <c r="A275" s="3">
         <f>DATE(2009,10,1)</f>
         <v>40087</v>
       </c>
@@ -2889,7 +2883,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+      <c r="A276" s="3">
         <f>DATE(2009,11,1)</f>
         <v>40118</v>
       </c>
@@ -2898,7 +2892,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+      <c r="A277" s="3">
         <f>DATE(2009,12,1)</f>
         <v>40148</v>
       </c>
@@ -2907,7 +2901,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+      <c r="A278" s="3">
         <f>DATE(2010,1,1)</f>
         <v>40179</v>
       </c>
@@ -2916,7 +2910,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+      <c r="A279" s="3">
         <f>DATE(2010,2,1)</f>
         <v>40210</v>
       </c>
@@ -2925,7 +2919,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
+      <c r="A280" s="3">
         <f>DATE(2010,3,1)</f>
         <v>40238</v>
       </c>
@@ -2934,7 +2928,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
+      <c r="A281" s="3">
         <f>DATE(2010,4,1)</f>
         <v>40269</v>
       </c>
@@ -2943,7 +2937,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
+      <c r="A282" s="3">
         <f>DATE(2010,5,1)</f>
         <v>40299</v>
       </c>
@@ -2952,7 +2946,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
+      <c r="A283" s="3">
         <f>DATE(2010,6,1)</f>
         <v>40330</v>
       </c>
@@ -2961,7 +2955,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
+      <c r="A284" s="3">
         <f>DATE(2010,7,1)</f>
         <v>40360</v>
       </c>
@@ -2970,7 +2964,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
+      <c r="A285" s="3">
         <f>DATE(2010,8,1)</f>
         <v>40391</v>
       </c>
@@ -2979,7 +2973,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
+      <c r="A286" s="3">
         <f>DATE(2010,9,1)</f>
         <v>40422</v>
       </c>
@@ -2988,7 +2982,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
+      <c r="A287" s="3">
         <f>DATE(2010,10,1)</f>
         <v>40452</v>
       </c>
@@ -2997,7 +2991,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
+      <c r="A288" s="3">
         <f>DATE(2010,11,1)</f>
         <v>40483</v>
       </c>
@@ -3006,7 +3000,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
+      <c r="A289" s="3">
         <f>DATE(2010,12,1)</f>
         <v>40513</v>
       </c>
@@ -3015,7 +3009,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
+      <c r="A290" s="3">
         <f>DATE(2011,1,1)</f>
         <v>40544</v>
       </c>
@@ -3024,7 +3018,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
+      <c r="A291" s="3">
         <f>DATE(2011,2,1)</f>
         <v>40575</v>
       </c>
@@ -3033,7 +3027,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
+      <c r="A292" s="3">
         <f>DATE(2011,3,1)</f>
         <v>40603</v>
       </c>
@@ -3042,7 +3036,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
+      <c r="A293" s="3">
         <f>DATE(2011,4,1)</f>
         <v>40634</v>
       </c>
@@ -3051,7 +3045,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
+      <c r="A294" s="3">
         <f>DATE(2011,5,1)</f>
         <v>40664</v>
       </c>
@@ -3060,7 +3054,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
+      <c r="A295" s="3">
         <f>DATE(2011,6,1)</f>
         <v>40695</v>
       </c>
@@ -3069,7 +3063,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
+      <c r="A296" s="3">
         <f>DATE(2011,7,1)</f>
         <v>40725</v>
       </c>
@@ -3078,7 +3072,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
+      <c r="A297" s="3">
         <f>DATE(2011,8,1)</f>
         <v>40756</v>
       </c>
@@ -3087,7 +3081,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
+      <c r="A298" s="3">
         <f>DATE(2011,9,1)</f>
         <v>40787</v>
       </c>
@@ -3096,7 +3090,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
+      <c r="A299" s="3">
         <f>DATE(2011,10,1)</f>
         <v>40817</v>
       </c>
@@ -3105,7 +3099,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
+      <c r="A300" s="3">
         <f>DATE(2011,11,1)</f>
         <v>40848</v>
       </c>
@@ -3114,7 +3108,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+      <c r="A301" s="3">
         <f>DATE(2011,12,1)</f>
         <v>40878</v>
       </c>
@@ -3123,7 +3117,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
+      <c r="A302" s="3">
         <f>DATE(2012,1,1)</f>
         <v>40909</v>
       </c>
@@ -3132,7 +3126,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
+      <c r="A303" s="3">
         <f>DATE(2012,2,1)</f>
         <v>40940</v>
       </c>
@@ -3141,7 +3135,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
+      <c r="A304" s="3">
         <f>DATE(2012,3,1)</f>
         <v>40969</v>
       </c>
@@ -3150,7 +3144,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
+      <c r="A305" s="3">
         <f>DATE(2012,4,1)</f>
         <v>41000</v>
       </c>
@@ -3159,7 +3153,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
+      <c r="A306" s="3">
         <f>DATE(2012,5,1)</f>
         <v>41030</v>
       </c>
@@ -3168,7 +3162,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
+      <c r="A307" s="3">
         <f>DATE(2012,6,1)</f>
         <v>41061</v>
       </c>
@@ -3177,7 +3171,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
+      <c r="A308" s="3">
         <f>DATE(2012,7,1)</f>
         <v>41091</v>
       </c>
@@ -3186,7 +3180,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
+      <c r="A309" s="3">
         <f>DATE(2012,8,1)</f>
         <v>41122</v>
       </c>
@@ -3195,7 +3189,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
+      <c r="A310" s="3">
         <f>DATE(2012,9,1)</f>
         <v>41153</v>
       </c>
@@ -3204,7 +3198,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
+      <c r="A311" s="3">
         <f>DATE(2012,10,1)</f>
         <v>41183</v>
       </c>
@@ -3213,7 +3207,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
+      <c r="A312" s="3">
         <f>DATE(2012,11,1)</f>
         <v>41214</v>
       </c>
@@ -3222,7 +3216,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
+      <c r="A313" s="3">
         <f>DATE(2012,12,1)</f>
         <v>41244</v>
       </c>
@@ -3231,7 +3225,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
+      <c r="A314" s="3">
         <f>DATE(2013,1,1)</f>
         <v>41275</v>
       </c>
@@ -3240,7 +3234,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+      <c r="A315" s="3">
         <f>DATE(2013,2,1)</f>
         <v>41306</v>
       </c>
@@ -3249,7 +3243,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
+      <c r="A316" s="3">
         <f>DATE(2013,3,1)</f>
         <v>41334</v>
       </c>
@@ -3258,7 +3252,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
+      <c r="A317" s="3">
         <f>DATE(2013,4,1)</f>
         <v>41365</v>
       </c>
@@ -3267,7 +3261,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
+      <c r="A318" s="3">
         <f>DATE(2013,5,1)</f>
         <v>41395</v>
       </c>
@@ -3276,7 +3270,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
+      <c r="A319" s="3">
         <f>DATE(2013,6,1)</f>
         <v>41426</v>
       </c>
@@ -3285,7 +3279,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
+      <c r="A320" s="3">
         <f>DATE(2013,7,1)</f>
         <v>41456</v>
       </c>
@@ -3294,7 +3288,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
+      <c r="A321" s="3">
         <f>DATE(2013,8,1)</f>
         <v>41487</v>
       </c>
@@ -3303,7 +3297,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
+      <c r="A322" s="3">
         <f>DATE(2013,9,1)</f>
         <v>41518</v>
       </c>
@@ -3312,7 +3306,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
+      <c r="A323" s="3">
         <f>DATE(2013,10,1)</f>
         <v>41548</v>
       </c>
@@ -3321,7 +3315,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
+      <c r="A324" s="3">
         <f>DATE(2013,11,1)</f>
         <v>41579</v>
       </c>
@@ -3330,7 +3324,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
+      <c r="A325" s="3">
         <f>DATE(2013,12,1)</f>
         <v>41609</v>
       </c>
@@ -3339,7 +3333,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
+      <c r="A326" s="3">
         <f>DATE(2014,1,1)</f>
         <v>41640</v>
       </c>
@@ -3348,7 +3342,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+      <c r="A327" s="3">
         <f>DATE(2014,2,1)</f>
         <v>41671</v>
       </c>
@@ -3357,7 +3351,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+      <c r="A328" s="3">
         <f>DATE(2014,3,1)</f>
         <v>41699</v>
       </c>
@@ -3366,7 +3360,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
+      <c r="A329" s="3">
         <f>DATE(2014,4,1)</f>
         <v>41730</v>
       </c>
@@ -3375,7 +3369,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
+      <c r="A330" s="3">
         <f>DATE(2014,5,1)</f>
         <v>41760</v>
       </c>
@@ -3384,7 +3378,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
+      <c r="A331" s="3">
         <f>DATE(2014,6,1)</f>
         <v>41791</v>
       </c>
@@ -3393,7 +3387,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
+      <c r="A332" s="3">
         <f>DATE(2014,7,1)</f>
         <v>41821</v>
       </c>
@@ -3402,7 +3396,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
+      <c r="A333" s="3">
         <f>DATE(2014,8,1)</f>
         <v>41852</v>
       </c>
@@ -3411,7 +3405,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
+      <c r="A334" s="3">
         <f>DATE(2014,9,1)</f>
         <v>41883</v>
       </c>
@@ -3420,7 +3414,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="2">
+      <c r="A335" s="3">
         <f>DATE(2014,10,1)</f>
         <v>41913</v>
       </c>
@@ -3429,7 +3423,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="2">
+      <c r="A336" s="3">
         <f>DATE(2014,11,1)</f>
         <v>41944</v>
       </c>
@@ -3438,7 +3432,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
+      <c r="A337" s="3">
         <f>DATE(2014,12,1)</f>
         <v>41974</v>
       </c>
@@ -3447,7 +3441,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="2">
+      <c r="A338" s="3">
         <f>DATE(2015,1,1)</f>
         <v>42005</v>
       </c>
@@ -3456,7 +3450,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
+      <c r="A339" s="3">
         <f>DATE(2015,2,1)</f>
         <v>42036</v>
       </c>
@@ -3465,7 +3459,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
+      <c r="A340" s="3">
         <f>DATE(2015,3,1)</f>
         <v>42064</v>
       </c>
@@ -3474,7 +3468,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="2">
+      <c r="A341" s="3">
         <f>DATE(2015,4,1)</f>
         <v>42095</v>
       </c>
@@ -3483,7 +3477,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
+      <c r="A342" s="3">
         <f>DATE(2015,5,1)</f>
         <v>42125</v>
       </c>
@@ -3492,7 +3486,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="2">
+      <c r="A343" s="3">
         <f>DATE(2015,6,1)</f>
         <v>42156</v>
       </c>
@@ -3501,7 +3495,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
+      <c r="A344" s="3">
         <f>DATE(2015,7,1)</f>
         <v>42186</v>
       </c>
@@ -3510,7 +3504,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
+      <c r="A345" s="3">
         <f>DATE(2015,8,1)</f>
         <v>42217</v>
       </c>
@@ -3519,7 +3513,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="2">
+      <c r="A346" s="3">
         <f>DATE(2015,9,1)</f>
         <v>42248</v>
       </c>
@@ -3528,7 +3522,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="2">
+      <c r="A347" s="3">
         <f>DATE(2015,10,1)</f>
         <v>42278</v>
       </c>
@@ -3537,7 +3531,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
+      <c r="A348" s="3">
         <f>DATE(2015,11,1)</f>
         <v>42309</v>
       </c>
@@ -3546,7 +3540,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="2">
+      <c r="A349" s="3">
         <f>DATE(2015,12,1)</f>
         <v>42339</v>
       </c>
@@ -3555,7 +3549,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
+      <c r="A350" s="3">
         <f>DATE(2016,1,1)</f>
         <v>42370</v>
       </c>
@@ -3564,7 +3558,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="2">
+      <c r="A351" s="3">
         <f>DATE(2016,2,1)</f>
         <v>42401</v>
       </c>
@@ -3573,7 +3567,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="2">
+      <c r="A352" s="3">
         <f>DATE(2016,3,1)</f>
         <v>42430</v>
       </c>
@@ -3582,7 +3576,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="2">
+      <c r="A353" s="3">
         <f>DATE(2016,4,1)</f>
         <v>42461</v>
       </c>
@@ -3591,7 +3585,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
+      <c r="A354" s="3">
         <f>DATE(2016,5,1)</f>
         <v>42491</v>
       </c>
@@ -3600,7 +3594,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="2">
+      <c r="A355" s="3">
         <f>DATE(2016,6,1)</f>
         <v>42522</v>
       </c>
@@ -3609,7 +3603,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="2">
+      <c r="A356" s="3">
         <f>DATE(2016,7,1)</f>
         <v>42552</v>
       </c>
@@ -3618,7 +3612,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="2">
+      <c r="A357" s="3">
         <f>DATE(2016,8,1)</f>
         <v>42583</v>
       </c>
@@ -3627,7 +3621,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="2">
+      <c r="A358" s="3">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
       </c>
@@ -3636,7 +3630,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="2">
+      <c r="A359" s="3">
         <f>DATE(2016,10,1)</f>
         <v>42644</v>
       </c>
@@ -3645,7 +3639,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="2">
+      <c r="A360" s="3">
         <f>DATE(2016,11,1)</f>
         <v>42675</v>
       </c>
@@ -3654,7 +3648,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="2">
+      <c r="A361" s="3">
         <f>DATE(2016,12,1)</f>
         <v>42705</v>
       </c>
@@ -3663,7 +3657,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="2">
+      <c r="A362" s="3">
         <f>DATE(2017,1,1)</f>
         <v>42736</v>
       </c>
@@ -3672,7 +3666,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="2">
+      <c r="A363" s="3">
         <f>DATE(2017,2,1)</f>
         <v>42767</v>
       </c>
@@ -3681,7 +3675,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="2">
+      <c r="A364" s="3">
         <f>DATE(2017,3,1)</f>
         <v>42795</v>
       </c>
@@ -3690,7 +3684,7 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="2">
+      <c r="A365" s="3">
         <f>DATE(2017,4,1)</f>
         <v>42826</v>
       </c>
@@ -3699,7 +3693,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="2">
+      <c r="A366" s="3">
         <f>DATE(2017,5,1)</f>
         <v>42856</v>
       </c>
@@ -3708,7 +3702,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="2">
+      <c r="A367" s="3">
         <f>DATE(2017,6,1)</f>
         <v>42887</v>
       </c>
@@ -3717,7 +3711,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="2">
+      <c r="A368" s="3">
         <f>DATE(2017,7,1)</f>
         <v>42917</v>
       </c>
@@ -3726,7 +3720,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="2">
+      <c r="A369" s="3">
         <f>DATE(2017,8,1)</f>
         <v>42948</v>
       </c>
@@ -3735,7 +3729,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="2">
+      <c r="A370" s="3">
         <f>DATE(2017,9,1)</f>
         <v>42979</v>
       </c>
@@ -3744,7 +3738,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="2">
+      <c r="A371" s="3">
         <f>DATE(2017,10,1)</f>
         <v>43009</v>
       </c>
@@ -3753,7 +3747,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="2">
+      <c r="A372" s="3">
         <f>DATE(2017,11,1)</f>
         <v>43040</v>
       </c>
@@ -3762,7 +3756,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="2">
+      <c r="A373" s="3">
         <f>DATE(2017,12,1)</f>
         <v>43070</v>
       </c>
@@ -3771,7 +3765,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="2">
+      <c r="A374" s="3">
         <f>DATE(2018,1,1)</f>
         <v>43101</v>
       </c>
@@ -3780,7 +3774,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="2">
+      <c r="A375" s="3">
         <f>DATE(2018,2,1)</f>
         <v>43132</v>
       </c>
@@ -3789,7 +3783,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="2">
+      <c r="A376" s="3">
         <f>DATE(2018,3,1)</f>
         <v>43160</v>
       </c>
@@ -3798,7 +3792,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="2">
+      <c r="A377" s="3">
         <f>DATE(2018,4,1)</f>
         <v>43191</v>
       </c>
@@ -3807,7 +3801,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="2">
+      <c r="A378" s="3">
         <f>DATE(2018,5,1)</f>
         <v>43221</v>
       </c>
@@ -3816,7 +3810,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="2">
+      <c r="A379" s="3">
         <f>DATE(2018,6,1)</f>
         <v>43252</v>
       </c>
@@ -3825,7 +3819,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="2">
+      <c r="A380" s="3">
         <f>DATE(2018,7,1)</f>
         <v>43282</v>
       </c>
@@ -3834,7 +3828,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="2">
+      <c r="A381" s="3">
         <f>DATE(2018,8,1)</f>
         <v>43313</v>
       </c>
@@ -3843,7 +3837,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="2">
+      <c r="A382" s="3">
         <f>DATE(2018,9,1)</f>
         <v>43344</v>
       </c>
@@ -3852,7 +3846,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="2">
+      <c r="A383" s="3">
         <f>DATE(2018,10,1)</f>
         <v>43374</v>
       </c>
@@ -3861,7 +3855,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="2">
+      <c r="A384" s="3">
         <f>DATE(2018,11,1)</f>
         <v>43405</v>
       </c>
@@ -3870,7 +3864,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="2">
+      <c r="A385" s="3">
         <f>DATE(2018,12,1)</f>
         <v>43435</v>
       </c>
@@ -3879,7 +3873,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="2">
+      <c r="A386" s="3">
         <f>DATE(2019,1,1)</f>
         <v>43466</v>
       </c>
@@ -3888,7 +3882,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="2">
+      <c r="A387" s="3">
         <f>DATE(2019,2,1)</f>
         <v>43497</v>
       </c>
@@ -3897,7 +3891,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="2">
+      <c r="A388" s="3">
         <f>DATE(2019,3,1)</f>
         <v>43525</v>
       </c>
@@ -3906,7 +3900,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="2">
+      <c r="A389" s="3">
         <f>DATE(2019,4,1)</f>
         <v>43556</v>
       </c>
@@ -3915,7 +3909,7 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="2">
+      <c r="A390" s="3">
         <f>DATE(2019,5,1)</f>
         <v>43586</v>
       </c>
@@ -3924,7 +3918,7 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="2">
+      <c r="A391" s="3">
         <f>DATE(2019,6,1)</f>
         <v>43617</v>
       </c>
@@ -3933,7 +3927,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="2">
+      <c r="A392" s="3">
         <f>DATE(2019,7,1)</f>
         <v>43647</v>
       </c>
@@ -3942,7 +3936,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="2">
+      <c r="A393" s="3">
         <f>DATE(2019,8,1)</f>
         <v>43678</v>
       </c>
@@ -3951,7 +3945,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="2">
+      <c r="A394" s="3">
         <f>DATE(2019,9,1)</f>
         <v>43709</v>
       </c>
@@ -3960,7 +3954,7 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="2">
+      <c r="A395" s="3">
         <f>DATE(2019,10,1)</f>
         <v>43739</v>
       </c>
@@ -3969,7 +3963,7 @@
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="2">
+      <c r="A396" s="3">
         <f>DATE(2019,11,1)</f>
         <v>43770</v>
       </c>
@@ -3978,7 +3972,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="2">
+      <c r="A397" s="3">
         <f>DATE(2019,12,1)</f>
         <v>43800</v>
       </c>
@@ -3987,7 +3981,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="2">
+      <c r="A398" s="3">
         <f>DATE(2020,1,1)</f>
         <v>43831</v>
       </c>
@@ -3996,7 +3990,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="2">
+      <c r="A399" s="3">
         <f>DATE(2020,2,1)</f>
         <v>43862</v>
       </c>
@@ -4005,7 +3999,7 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="2">
+      <c r="A400" s="3">
         <f>DATE(2020,3,1)</f>
         <v>43891</v>
       </c>
@@ -4014,7 +4008,7 @@
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="2">
+      <c r="A401" s="3">
         <f>DATE(2020,4,1)</f>
         <v>43922</v>
       </c>
@@ -4023,7 +4017,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="2">
+      <c r="A402" s="3">
         <f>DATE(2020,5,1)</f>
         <v>43952</v>
       </c>
@@ -4032,7 +4026,7 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="2">
+      <c r="A403" s="3">
         <f>DATE(2020,6,1)</f>
         <v>43983</v>
       </c>
@@ -4041,7 +4035,7 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="2">
+      <c r="A404" s="3">
         <f>DATE(2020,7,1)</f>
         <v>44013</v>
       </c>
@@ -4050,7 +4044,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="2">
+      <c r="A405" s="3">
         <f>DATE(2020,8,1)</f>
         <v>44044</v>
       </c>
@@ -4059,7 +4053,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="2">
+      <c r="A406" s="3">
         <f>DATE(2020,9,1)</f>
         <v>44075</v>
       </c>
@@ -4068,7 +4062,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="2">
+      <c r="A407" s="3">
         <f>DATE(2020,10,1)</f>
         <v>44105</v>
       </c>
@@ -4077,7 +4071,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="2">
+      <c r="A408" s="3">
         <f>DATE(2020,11,1)</f>
         <v>44136</v>
       </c>
@@ -4086,7 +4080,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="2">
+      <c r="A409" s="3">
         <f>DATE(2020,12,1)</f>
         <v>44166</v>
       </c>
@@ -4095,7 +4089,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="2">
+      <c r="A410" s="3">
         <f>DATE(2021,1,1)</f>
         <v>44197</v>
       </c>
@@ -4104,7 +4098,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="2">
+      <c r="A411" s="3">
         <f>DATE(2021,2,1)</f>
         <v>44228</v>
       </c>
@@ -4113,7 +4107,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="2">
+      <c r="A412" s="3">
         <f>DATE(2021,3,1)</f>
         <v>44256</v>
       </c>
@@ -4122,7 +4116,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="2">
+      <c r="A413" s="3">
         <f>DATE(2021,4,1)</f>
         <v>44287</v>
       </c>
@@ -4131,7 +4125,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="2">
+      <c r="A414" s="3">
         <f>DATE(2021,5,1)</f>
         <v>44317</v>
       </c>
@@ -4140,7 +4134,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="2">
+      <c r="A415" s="3">
         <f>DATE(2021,6,1)</f>
         <v>44348</v>
       </c>
@@ -4149,7 +4143,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="2">
+      <c r="A416" s="3">
         <f>DATE(2021,7,1)</f>
         <v>44378</v>
       </c>
@@ -4158,7 +4152,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="2">
+      <c r="A417" s="3">
         <f>DATE(2021,8,1)</f>
         <v>44409</v>
       </c>
@@ -4167,7 +4161,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="2">
+      <c r="A418" s="3">
         <f>DATE(2021,9,1)</f>
         <v>44440</v>
       </c>
@@ -4176,7 +4170,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="2">
+      <c r="A419" s="3">
         <f>DATE(2021,10,1)</f>
         <v>44470</v>
       </c>
@@ -4185,7 +4179,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="2">
+      <c r="A420" s="3">
         <f>DATE(2021,11,1)</f>
         <v>44501</v>
       </c>
@@ -4194,7 +4188,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="2"/>
+      <c r="A421" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
